--- a/perhitungan 1 parameter.xlsx
+++ b/perhitungan 1 parameter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\KULIAH\Semester 7\metpen\LSTM\LSTM Prediksi\Uji coba\persiapan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\KULIAH\Semester_7\metpen\LSTM\LSTM_Prediksi\Uji_coba\persiapan\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1557,6 +1557,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1575,26 +1599,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1602,22 +1614,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -16090,8 +16090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ412"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="U80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y113" sqref="Y113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16143,10 +16143,10 @@
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
-      <c r="AD3" s="143" t="s">
+      <c r="AD3" s="147" t="s">
         <v>235</v>
       </c>
-      <c r="AE3" s="142"/>
+      <c r="AE3" s="132"/>
       <c r="AF3" s="110" t="s">
         <v>236</v>
       </c>
@@ -16428,7 +16428,7 @@
       </c>
       <c r="AP9" s="115">
         <f t="shared" si="2"/>
-        <v>-1.8068364056724928E-3</v>
+        <v>-1.6311335809512046E-3</v>
       </c>
       <c r="AQ9" s="115"/>
       <c r="AR9" s="115">
@@ -16445,24 +16445,24 @@
       </c>
       <c r="AU9" s="115">
         <f t="shared" si="3"/>
-        <v>-3.1707080319176677E-3</v>
+        <v>-2.9950052071963792E-3</v>
       </c>
       <c r="AV9" s="115"/>
       <c r="AW9" s="115">
         <f t="shared" ref="AW9:AZ12" si="4">AR19</f>
-        <v>-1.4506626315549604E-3</v>
+        <v>-1.8042515643181835E-3</v>
       </c>
       <c r="AX9" s="115">
         <f t="shared" si="4"/>
-        <v>-2.5191215439868604E-3</v>
+        <v>-2.9767000306597409E-3</v>
       </c>
       <c r="AY9" s="115">
         <f t="shared" si="4"/>
-        <v>-1.9339920323793742E-3</v>
+        <v>-2.4463568061456236E-3</v>
       </c>
       <c r="AZ9" s="116">
         <f t="shared" si="4"/>
-        <v>-3.1707080319176677E-3</v>
+        <v>-3.1039489689705371E-3</v>
       </c>
       <c r="BA9" s="58"/>
       <c r="BB9">
@@ -16535,12 +16535,12 @@
         <v>0</v>
       </c>
       <c r="J10" s="54"/>
-      <c r="K10" s="149" t="s">
+      <c r="K10" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="149"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="149"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
       <c r="O10" t="s">
         <v>74</v>
       </c>
@@ -16565,12 +16565,12 @@
       <c r="Y10" s="87">
         <v>2.4063270636139216E-3</v>
       </c>
-      <c r="AA10" s="149" t="s">
+      <c r="AA10" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="AB10" s="149"/>
-      <c r="AC10" s="149"/>
-      <c r="AD10" s="149"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="133"/>
+      <c r="AD10" s="133"/>
       <c r="AF10" s="117"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19">
@@ -16622,19 +16622,19 @@
       <c r="AV10" s="19"/>
       <c r="AW10" s="19">
         <f t="shared" si="4"/>
-        <v>-3.321959317563145E-6</v>
+        <v>-5.265592248269812E-6</v>
       </c>
       <c r="AX10" s="19">
         <f t="shared" si="4"/>
-        <v>-5.7686874281383578E-6</v>
+        <v>-8.2839375750536918E-6</v>
       </c>
       <c r="AY10" s="19">
         <f t="shared" si="4"/>
-        <v>-4.4287642848902734E-6</v>
+        <v>-7.2451676124599562E-6</v>
       </c>
       <c r="AZ10" s="118">
         <f t="shared" si="4"/>
-        <v>-3.1232113919614014E-6</v>
+        <v>-3.722061252234346E-6</v>
       </c>
       <c r="BA10" s="58"/>
       <c r="BB10">
@@ -16687,7 +16687,7 @@
       <c r="BT10" s="19"/>
       <c r="BU10" s="19">
         <f>ABS(BQ13-BQ18)</f>
-        <v>0.85775290827291428</v>
+        <v>0.85786367689161125</v>
       </c>
       <c r="BV10" s="19"/>
       <c r="BW10" s="20"/>
@@ -16787,7 +16787,7 @@
       </c>
       <c r="AP11" s="19">
         <f t="shared" si="2"/>
-        <v>-4.5216065401778015E-4</v>
+        <v>-4.081910373500333E-4</v>
       </c>
       <c r="AQ11" s="19"/>
       <c r="AR11" s="19">
@@ -16804,24 +16804,24 @@
       </c>
       <c r="AU11" s="19">
         <f t="shared" si="3"/>
-        <v>-8.1003161928408951E-4</v>
+        <v>-7.6606200261634266E-4</v>
       </c>
       <c r="AV11" s="19"/>
       <c r="AW11" s="19">
         <f t="shared" si="4"/>
-        <v>-3.8064435555389565E-4</v>
+        <v>-4.7720066433493895E-4</v>
       </c>
       <c r="AX11" s="19">
         <f t="shared" si="4"/>
-        <v>-6.610009631563906E-4</v>
+        <v>-7.8595422259659833E-4</v>
       </c>
       <c r="AY11" s="19">
         <f t="shared" si="4"/>
-        <v>-5.0746681881667065E-4</v>
+        <v>-6.4738084530412241E-4</v>
       </c>
       <c r="AZ11" s="118">
         <f t="shared" si="4"/>
-        <v>-8.1003161928408951E-4</v>
+        <v>-7.9581182374176263E-4</v>
       </c>
       <c r="BA11" s="58"/>
       <c r="BB11">
@@ -16867,7 +16867,7 @@
       </c>
       <c r="BQ11" s="19">
         <f>BH19*BQ10</f>
-        <v>0.85775290827296291</v>
+        <v>0.85786367689168963</v>
       </c>
       <c r="BR11" s="19"/>
       <c r="BS11" s="19"/>
@@ -16973,7 +16973,7 @@
       </c>
       <c r="AP12" s="19">
         <f t="shared" si="2"/>
-        <v>-1.6453928405330613E-7</v>
+        <v>3.8708959738898604E-7</v>
       </c>
       <c r="AQ12" s="19"/>
       <c r="AR12" s="19">
@@ -16990,24 +16990,24 @@
       </c>
       <c r="AU12" s="19">
         <f t="shared" si="3"/>
-        <v>4.7280585484896191E-7</v>
+        <v>1.0244347362912541E-6</v>
       </c>
       <c r="AV12" s="19"/>
       <c r="AW12" s="19">
         <f t="shared" si="4"/>
-        <v>6.7790308018514441E-7</v>
+        <v>1.2543458752458025E-6</v>
       </c>
       <c r="AX12" s="19">
         <f t="shared" si="4"/>
-        <v>1.1772001407377191E-6</v>
+        <v>1.9231732110938851E-6</v>
       </c>
       <c r="AY12" s="19">
         <f t="shared" si="4"/>
-        <v>9.0376571870344888E-7</v>
+        <v>1.7390548211432467E-6</v>
       </c>
       <c r="AZ12" s="118">
         <f t="shared" si="4"/>
-        <v>4.7280585484896191E-7</v>
+        <v>1.2020416711315234E-6</v>
       </c>
       <c r="BA12" s="58"/>
       <c r="BB12">
@@ -17182,7 +17182,7 @@
       </c>
       <c r="BQ13" s="112">
         <f>BQ12+BQ11</f>
-        <v>1053.0117529082729</v>
+        <v>1053.0118636768916</v>
       </c>
       <c r="BR13" s="19" t="s">
         <v>263</v>
@@ -17263,7 +17263,7 @@
       </c>
       <c r="AK14" s="19">
         <f t="shared" si="12"/>
-        <v>-1.8068364056724928E-3</v>
+        <v>-1.6311335809512046E-3</v>
       </c>
       <c r="AL14" s="19"/>
       <c r="AM14" s="19">
@@ -17285,32 +17285,32 @@
       <c r="AQ14" s="19"/>
       <c r="AR14" s="19">
         <f t="shared" ref="AR14:AU17" si="14">Y217</f>
-        <v>0</v>
+        <v>-3.5358893276322305E-4</v>
       </c>
       <c r="AS14" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-4.5757848667288059E-4</v>
       </c>
       <c r="AT14" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-5.123647737662496E-4</v>
       </c>
       <c r="AU14" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-1.0894376177415804E-4</v>
       </c>
       <c r="AV14" s="19"/>
       <c r="AW14" s="19">
         <f t="shared" ref="AW14:AZ17" si="15">Y121</f>
-        <v>0</v>
+        <v>-4.6539127248595031E-4</v>
       </c>
       <c r="AX14" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-7.2788141694486188E-4</v>
       </c>
       <c r="AY14" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-6.1441701815153152E-4</v>
       </c>
       <c r="AZ14" s="118">
         <f t="shared" si="15"/>
@@ -17415,32 +17415,32 @@
       <c r="AQ15" s="19"/>
       <c r="AR15" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-1.943632930706667E-6</v>
       </c>
       <c r="AS15" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-2.5152501469153331E-6</v>
       </c>
       <c r="AT15" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-2.8164033275696827E-6</v>
       </c>
       <c r="AU15" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-5.9884986027294473E-7</v>
       </c>
       <c r="AV15" s="19"/>
       <c r="AW15" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-2.3935635095898512E-6</v>
       </c>
       <c r="AX15" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-3.7435820177748902E-6</v>
       </c>
       <c r="AY15" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-3.1600209141500575E-6</v>
       </c>
       <c r="AZ15" s="118">
         <f t="shared" si="15"/>
@@ -17450,11 +17450,11 @@
       <c r="BB15" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="BF15" s="140"/>
-      <c r="BG15" s="141"/>
-      <c r="BH15" s="141"/>
-      <c r="BI15" s="141"/>
-      <c r="BJ15" s="141"/>
+      <c r="BF15" s="149"/>
+      <c r="BG15" s="150"/>
+      <c r="BH15" s="150"/>
+      <c r="BI15" s="150"/>
+      <c r="BJ15" s="150"/>
       <c r="BK15" s="19"/>
       <c r="BP15" s="18" t="s">
         <v>264</v>
@@ -17514,12 +17514,12 @@
       <c r="Y16" s="75">
         <v>0.5</v>
       </c>
-      <c r="AA16" s="144" t="s">
+      <c r="AA16" s="148" t="s">
         <v>200</v>
       </c>
-      <c r="AB16" s="144"/>
-      <c r="AC16" s="144"/>
-      <c r="AD16" s="144"/>
+      <c r="AB16" s="148"/>
+      <c r="AC16" s="148"/>
+      <c r="AD16" s="148"/>
       <c r="AE16" s="35"/>
       <c r="AF16" s="117"/>
       <c r="AG16" s="19"/>
@@ -17537,7 +17537,7 @@
       </c>
       <c r="AK16" s="19">
         <f t="shared" si="12"/>
-        <v>-4.5216065401778015E-4</v>
+        <v>-4.081910373500333E-4</v>
       </c>
       <c r="AL16" s="19"/>
       <c r="AM16" s="19">
@@ -17559,19 +17559,19 @@
       <c r="AQ16" s="19"/>
       <c r="AR16" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-9.6556308781043325E-5</v>
       </c>
       <c r="AS16" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-1.2495325944020773E-4</v>
       </c>
       <c r="AT16" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-1.3991402648745181E-4</v>
       </c>
       <c r="AU16" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-2.9749821125419953E-5</v>
       </c>
       <c r="AV16" s="19"/>
       <c r="AW16" s="19">
@@ -17681,12 +17681,12 @@
         <v>0.5</v>
       </c>
       <c r="AA17" t="str">
-        <f>IF(R26&lt;T19,"1","0")</f>
+        <f>IF(R23&lt;T16,"1","0")</f>
+        <v>1</v>
+      </c>
+      <c r="AC17" t="str">
+        <f>IF(R23&gt;T16,"1","0")</f>
         <v>0</v>
-      </c>
-      <c r="AC17" t="str">
-        <f>IF(R26&gt;T19,"1","0")</f>
-        <v>1</v>
       </c>
       <c r="AD17" s="76"/>
       <c r="AF17" s="117"/>
@@ -17705,7 +17705,7 @@
       </c>
       <c r="AK17" s="19">
         <f t="shared" si="12"/>
-        <v>-1.6453928405330613E-7</v>
+        <v>3.8708959738898604E-7</v>
       </c>
       <c r="AL17" s="19"/>
       <c r="AM17" s="19">
@@ -17727,32 +17727,32 @@
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5.7644279506065806E-7</v>
       </c>
       <c r="AS17" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>7.4597307035616578E-7</v>
       </c>
       <c r="AT17" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8.3528910243979796E-7</v>
       </c>
       <c r="AU17" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.7760693484026935E-7</v>
       </c>
       <c r="AV17" s="19"/>
       <c r="AW17" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-2.5690311028213474E-6</v>
       </c>
       <c r="AX17" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-4.0180169028706389E-6</v>
       </c>
       <c r="AY17" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-3.3916760434773404E-6</v>
       </c>
       <c r="AZ17" s="118">
         <f t="shared" si="15"/>
@@ -17834,11 +17834,11 @@
         <v>0.5</v>
       </c>
       <c r="AA18" t="str">
-        <f>IF(R25&lt;T18,"1","0")</f>
+        <f>IF(R24&lt;T17,"1","0")</f>
         <v>0</v>
       </c>
       <c r="AC18" t="str">
-        <f>IF(T25&lt;R25,"1","0")</f>
+        <f t="shared" ref="AC18:AC20" si="23">IF(R24&gt;T17,"1","0")</f>
         <v>1</v>
       </c>
       <c r="AF18" s="117"/>
@@ -17962,11 +17962,11 @@
         <v>0.5</v>
       </c>
       <c r="AA19" t="str">
-        <f>IF(R24&lt;T17,"1","0")</f>
+        <f t="shared" ref="AA18:AA20" si="24">IF(R25&lt;T18,"1","0")</f>
         <v>0</v>
       </c>
       <c r="AC19" t="str">
-        <f>IF(T24&lt;R24,"1","0")</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AF19" s="117"/>
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="19">
-        <v>-1.8068364056724928E-3</v>
+        <v>-1.6311335809512046E-3</v>
       </c>
       <c r="AL19" s="65" t="s">
         <v>241</v>
@@ -18000,39 +18000,39 @@
         <v>-1.9339920323793742E-3</v>
       </c>
       <c r="AP19" s="19">
-        <v>-3.1707080319176677E-3</v>
+        <v>-2.9950052071963792E-3</v>
       </c>
       <c r="AQ19" s="85" t="s">
         <v>242</v>
       </c>
       <c r="AR19" s="19">
         <f t="array" ref="AR19:AU22">AR9:AU12+AR14:AU17</f>
-        <v>-1.4506626315549604E-3</v>
+        <v>-1.8042515643181835E-3</v>
       </c>
       <c r="AS19" s="19">
-        <v>-2.5191215439868604E-3</v>
+        <v>-2.9767000306597409E-3</v>
       </c>
       <c r="AT19" s="19">
-        <v>-1.9339920323793742E-3</v>
+        <v>-2.4463568061456236E-3</v>
       </c>
       <c r="AU19" s="19">
-        <v>-3.1707080319176677E-3</v>
+        <v>-3.1039489689705371E-3</v>
       </c>
       <c r="AV19" s="119" t="s">
         <v>239</v>
       </c>
       <c r="AW19" s="19">
         <f t="array" ref="AW19:AZ22">AW9:AZ12+AW14:AZ17</f>
-        <v>-1.4506626315549604E-3</v>
+        <v>-2.2696428368041339E-3</v>
       </c>
       <c r="AX19" s="19">
-        <v>-2.5191215439868604E-3</v>
+        <v>-3.7045814476046029E-3</v>
       </c>
       <c r="AY19" s="19">
-        <v>-1.9339920323793742E-3</v>
+        <v>-3.060773824297155E-3</v>
       </c>
       <c r="AZ19" s="118">
-        <v>-3.1707080319176677E-3</v>
+        <v>-3.1039489689705371E-3</v>
       </c>
       <c r="BA19" s="58"/>
       <c r="BE19" s="1">
@@ -18046,7 +18046,7 @@
       </c>
       <c r="BH19" s="87">
         <f>BG101</f>
-        <v>8.0488485167550883E-4</v>
+        <v>8.049887930115209E-4</v>
       </c>
       <c r="BJ19" t="s">
         <v>114</v>
@@ -18127,11 +18127,11 @@
         <v>1</v>
       </c>
       <c r="AA20" t="str">
-        <f>IF(R23&lt;T16,"1","0")</f>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="AC20" t="str">
-        <f>IF(T23&lt;R23,"1","0")</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AF20" s="117"/>
@@ -18163,29 +18163,29 @@
       </c>
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19">
-        <v>-3.321959317563145E-6</v>
+        <v>-5.265592248269812E-6</v>
       </c>
       <c r="AS20" s="19">
-        <v>-5.7686874281383578E-6</v>
+        <v>-8.2839375750536918E-6</v>
       </c>
       <c r="AT20" s="19">
-        <v>-4.4287642848902734E-6</v>
+        <v>-7.2451676124599562E-6</v>
       </c>
       <c r="AU20" s="19">
-        <v>-3.1232113919614014E-6</v>
+        <v>-3.722061252234346E-6</v>
       </c>
       <c r="AV20" s="19"/>
       <c r="AW20" s="19">
-        <v>-3.321959317563145E-6</v>
+        <v>-7.6591557578596628E-6</v>
       </c>
       <c r="AX20" s="19">
-        <v>-5.7686874281383578E-6</v>
+        <v>-1.2027519592828582E-5</v>
       </c>
       <c r="AY20" s="19">
-        <v>-4.4287642848902734E-6</v>
+        <v>-1.0405188526610013E-5</v>
       </c>
       <c r="AZ20" s="118">
-        <v>-3.1232113919614014E-6</v>
+        <v>-3.722061252234346E-6</v>
       </c>
       <c r="BA20" s="58"/>
       <c r="BE20" s="9" t="s">
@@ -18197,23 +18197,23 @@
       <c r="BG20" s="1"/>
       <c r="BH20" s="87">
         <f>BG166</f>
-        <v>1.2077716379032006E-3</v>
+        <v>1.2079276167707785E-3</v>
       </c>
       <c r="BJ20">
         <f>AO53</f>
-        <v>9.2142803131577744E-2</v>
+        <v>9.21837521418402E-2</v>
       </c>
       <c r="BK20">
-        <f t="shared" ref="BJ20:BM23" si="23">AP53</f>
-        <v>-0.18048065392280066</v>
+        <f t="shared" ref="BJ20:BM23" si="25">AP53</f>
+        <v>-0.18042138092761978</v>
       </c>
       <c r="BL20">
-        <f t="shared" si="23"/>
-        <v>0.98956244960161899</v>
+        <f t="shared" si="25"/>
+        <v>0.98961878869121489</v>
       </c>
       <c r="BM20">
-        <f t="shared" si="23"/>
-        <v>-0.48293222459840413</v>
+        <f t="shared" si="25"/>
+        <v>-0.48293556255155146</v>
       </c>
       <c r="BP20" s="18" t="s">
         <v>258</v>
@@ -18265,20 +18265,20 @@
         <v>1058.962</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:J21" si="24">MIN(I17:I20)</f>
+        <f t="shared" ref="I21:J21" si="26">MIN(I17:I20)</f>
         <v>1049.3699999999999</v>
       </c>
       <c r="J21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1064.95</v>
       </c>
       <c r="S21" s="55"/>
-      <c r="Z21" s="150" t="s">
+      <c r="Z21" s="144" t="s">
         <v>222</v>
       </c>
-      <c r="AA21" s="150"/>
-      <c r="AB21" s="150"/>
-      <c r="AC21" s="150"/>
+      <c r="AA21" s="144"/>
+      <c r="AB21" s="144"/>
+      <c r="AC21" s="144"/>
       <c r="AF21" s="117"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19">
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="19">
-        <v>-4.5216065401778015E-4</v>
+        <v>-4.081910373500333E-4</v>
       </c>
       <c r="AL21" s="19"/>
       <c r="AM21" s="19">
@@ -18304,33 +18304,33 @@
         <v>-5.0746681881667065E-4</v>
       </c>
       <c r="AP21" s="19">
-        <v>-8.1003161928408951E-4</v>
+        <v>-7.6606200261634266E-4</v>
       </c>
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19">
-        <v>-3.8064435555389565E-4</v>
+        <v>-4.7720066433493895E-4</v>
       </c>
       <c r="AS21" s="19">
-        <v>-6.610009631563906E-4</v>
+        <v>-7.8595422259659833E-4</v>
       </c>
       <c r="AT21" s="19">
-        <v>-5.0746681881667065E-4</v>
+        <v>-6.4738084530412241E-4</v>
       </c>
       <c r="AU21" s="19">
-        <v>-8.1003161928408951E-4</v>
+        <v>-7.9581182374176263E-4</v>
       </c>
       <c r="AV21" s="19"/>
       <c r="AW21" s="19">
-        <v>-3.8064435555389565E-4</v>
+        <v>-4.7720066433493895E-4</v>
       </c>
       <c r="AX21" s="19">
-        <v>-6.610009631563906E-4</v>
+        <v>-7.8595422259659833E-4</v>
       </c>
       <c r="AY21" s="19">
-        <v>-5.0746681881667065E-4</v>
+        <v>-6.4738084530412241E-4</v>
       </c>
       <c r="AZ21" s="118">
-        <v>-8.1003161928408951E-4</v>
+        <v>-7.9581182374176263E-4</v>
       </c>
       <c r="BA21" s="58"/>
       <c r="BE21" s="1">
@@ -18342,30 +18342,30 @@
       <c r="BG21" s="1"/>
       <c r="BH21" s="87">
         <f>BG232</f>
-        <v>1.4094375535747578E-3</v>
+        <v>1.4096195847196366E-3</v>
       </c>
       <c r="BJ21">
-        <f t="shared" si="23"/>
-        <v>0.4641646960979659</v>
+        <f t="shared" si="25"/>
+        <v>0.46416491295778789</v>
       </c>
       <c r="BK21">
-        <f t="shared" si="23"/>
-        <v>-0.72592570156562863</v>
+        <f t="shared" si="25"/>
+        <v>-0.72592538862402034</v>
       </c>
       <c r="BL21">
-        <f t="shared" si="23"/>
-        <v>0.9732263014382142</v>
+        <f t="shared" si="25"/>
+        <v>0.97322660025942631</v>
       </c>
       <c r="BM21">
-        <f t="shared" si="23"/>
-        <v>-0.13671345383943043</v>
+        <f t="shared" si="25"/>
+        <v>-0.13671342389693741</v>
       </c>
       <c r="BP21" s="18" t="s">
         <v>258</v>
       </c>
       <c r="BQ21" s="19">
         <f>BQ20+BU10</f>
-        <v>0.85775290827291428</v>
+        <v>0.85786367689161125</v>
       </c>
       <c r="BR21" s="19"/>
       <c r="BS21" s="19"/>
@@ -18411,11 +18411,11 @@
         <v>1068.1179999999999</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:J22" si="25">MAX(I17:I20)</f>
+        <f t="shared" ref="I22:J22" si="27">MAX(I17:I20)</f>
         <v>1063.6300000000001</v>
       </c>
       <c r="J22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1077.1400000000001</v>
       </c>
       <c r="R22" s="102" t="s">
@@ -18457,7 +18457,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="121">
-        <v>-1.6453928405330613E-7</v>
+        <v>3.8708959738898604E-7</v>
       </c>
       <c r="AL22" s="121"/>
       <c r="AM22" s="121">
@@ -18470,33 +18470,33 @@
         <v>9.0376571870344888E-7</v>
       </c>
       <c r="AP22" s="121">
-        <v>4.7280585484896191E-7</v>
+        <v>1.0244347362912541E-6</v>
       </c>
       <c r="AQ22" s="121"/>
       <c r="AR22" s="121">
-        <v>6.7790308018514441E-7</v>
+        <v>1.2543458752458025E-6</v>
       </c>
       <c r="AS22" s="121">
-        <v>1.1772001407377191E-6</v>
+        <v>1.9231732110938851E-6</v>
       </c>
       <c r="AT22" s="121">
-        <v>9.0376571870344888E-7</v>
+        <v>1.7390548211432467E-6</v>
       </c>
       <c r="AU22" s="121">
-        <v>4.7280585484896191E-7</v>
+        <v>1.2020416711315234E-6</v>
       </c>
       <c r="AV22" s="121"/>
       <c r="AW22" s="121">
-        <v>6.7790308018514441E-7</v>
+        <v>-1.3146852275755449E-6</v>
       </c>
       <c r="AX22" s="121">
-        <v>1.1772001407377191E-6</v>
+        <v>-2.0948436917767538E-6</v>
       </c>
       <c r="AY22" s="121">
-        <v>9.0376571870344888E-7</v>
+        <v>-1.6526212223340937E-6</v>
       </c>
       <c r="AZ22" s="122">
-        <v>4.7280585484896191E-7</v>
+        <v>1.2020416711315234E-6</v>
       </c>
       <c r="BA22" s="58"/>
       <c r="BE22" s="9" t="s">
@@ -18508,23 +18508,23 @@
       <c r="BG22" s="1"/>
       <c r="BH22" s="87">
         <f>BG297</f>
-        <v>1.5103820055971187E-3</v>
+        <v>1.5105770797001806E-3</v>
       </c>
       <c r="BJ22">
-        <f t="shared" si="23"/>
-        <v>-0.36400940778222229</v>
+        <f t="shared" si="25"/>
+        <v>-0.36400457996678326</v>
       </c>
       <c r="BK22">
-        <f t="shared" si="23"/>
-        <v>0.10982820004815781</v>
+        <f t="shared" si="25"/>
+        <v>0.10983444771112982</v>
       </c>
       <c r="BL22">
-        <f t="shared" si="23"/>
-        <v>0.99235477334094091</v>
+        <f t="shared" si="25"/>
+        <v>0.99236176904226525</v>
       </c>
       <c r="BM22">
-        <f t="shared" si="23"/>
-        <v>0.9848198315809642</v>
+        <f t="shared" si="25"/>
+        <v>0.98481912059118704</v>
       </c>
       <c r="BP22" s="21"/>
       <c r="BQ22" s="22"/>
@@ -18589,12 +18589,12 @@
       <c r="Z23" s="18"/>
       <c r="AA23" s="19">
         <f>Y120</f>
-        <v>0</v>
+        <v>2.6338663037032622E-2</v>
       </c>
       <c r="AB23" s="19"/>
       <c r="AC23" s="20">
         <f>Y119</f>
-        <v>0</v>
+        <v>-0.11676705515041043</v>
       </c>
       <c r="AK23" s="74"/>
       <c r="BA23" s="58"/>
@@ -18606,20 +18606,20 @@
       </c>
       <c r="BG23" s="1"/>
       <c r="BJ23">
-        <f t="shared" si="23"/>
-        <v>0.329024326104846</v>
+        <f t="shared" si="25"/>
+        <v>0.32902442573426138</v>
       </c>
       <c r="BK23">
-        <f t="shared" si="23"/>
-        <v>-0.31113304886000703</v>
+        <f t="shared" si="25"/>
+        <v>-0.31113288525781541</v>
       </c>
       <c r="BL23">
-        <f t="shared" si="23"/>
-        <v>0.76189832481171416</v>
+        <f t="shared" si="25"/>
+        <v>0.76189845263106115</v>
       </c>
       <c r="BM23">
-        <f t="shared" si="23"/>
-        <v>-0.24283257364029276</v>
+        <f t="shared" si="25"/>
+        <v>-0.24283261010208357</v>
       </c>
       <c r="BZ23" s="33"/>
       <c r="CA23" s="33"/>
@@ -18859,7 +18859,7 @@
       <c r="BT25" s="19"/>
       <c r="BU25" s="19">
         <f>ABS(BQ28-BQ33)</f>
-        <v>0.31110291016739211</v>
+        <v>0.31126913435082315</v>
       </c>
       <c r="BV25" s="19"/>
       <c r="BW25" s="20"/>
@@ -18943,11 +18943,11 @@
       </c>
       <c r="AF26" s="1" t="str">
         <f>AA17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" s="1" t="str">
         <f>AC17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="1">
         <f>AA22</f>
@@ -18958,11 +18958,11 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" ref="AJ26:AK29" si="26">W10</f>
+        <f t="shared" ref="AJ26:AK29" si="28">W10</f>
         <v>0.50181786684433805</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.7952567388711582E-3</v>
       </c>
       <c r="AL26" s="1">
@@ -18989,15 +18989,15 @@
       </c>
       <c r="BA26" s="58"/>
       <c r="BF26">
-        <f t="shared" ref="BF26:BH29" si="27">BB9</f>
+        <f t="shared" ref="BF26:BH29" si="29">BB9</f>
         <v>1055.5999999999999</v>
       </c>
       <c r="BG26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1048.1400000000001</v>
       </c>
       <c r="BH26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1063.6300000000001</v>
       </c>
       <c r="BI26">
@@ -19008,11 +19008,11 @@
         <v>3.25623323928109E-3</v>
       </c>
       <c r="BL26">
-        <f t="shared" ref="BL26:BM26" si="28">(BG26-BG$30)/BG$31</f>
+        <f t="shared" ref="BL26:BM26" si="30">(BG26-BG$30)/BG$31</f>
         <v>1.6600835766214523E-3</v>
       </c>
       <c r="BM26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.242554134949577E-3</v>
       </c>
       <c r="BN26">
@@ -19023,7 +19023,7 @@
       </c>
       <c r="BQ26" s="19">
         <f>BH20*BQ25</f>
-        <v>1.2871029101672344</v>
+        <v>1.2872691343507503</v>
       </c>
       <c r="BR26" s="19"/>
       <c r="BS26" s="19"/>
@@ -19103,18 +19103,18 @@
       </c>
       <c r="AH27" s="1">
         <f>AA23</f>
-        <v>0</v>
+        <v>2.6338663037032622E-2</v>
       </c>
       <c r="AI27" s="1">
         <f>AC23</f>
-        <v>0</v>
+        <v>-0.11676705515041043</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.50201186386300212</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>7.4730069411105887E-3</v>
       </c>
       <c r="AL27" s="1">
@@ -19142,22 +19142,22 @@
       </c>
       <c r="BA27" s="58"/>
       <c r="BF27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1052.154</v>
       </c>
       <c r="BG27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1046.4000000000001</v>
       </c>
       <c r="BH27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1060.1199999999999</v>
       </c>
       <c r="BI27">
         <v>0</v>
       </c>
       <c r="BK27">
-        <f t="shared" ref="BK27:BK29" si="29">(BF27-BF$30)/BF$31</f>
+        <f t="shared" ref="BK27:BK29" si="31">(BF27-BF$30)/BF$31</f>
         <v>0</v>
       </c>
       <c r="BL27">
@@ -19165,7 +19165,7 @@
         <v>0</v>
       </c>
       <c r="BM27">
-        <f t="shared" ref="BM27" si="30">(BH27-BH$30)/BH$31</f>
+        <f t="shared" ref="BM27" si="32">(BH27-BH$30)/BH$31</f>
         <v>0</v>
       </c>
       <c r="BN27">
@@ -19262,11 +19262,11 @@
         <v>-0.81329423466873307</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.50080250600530418</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.9370188768194995E-3</v>
       </c>
       <c r="AL28" s="1">
@@ -19294,22 +19294,22 @@
       </c>
       <c r="BA28" s="58"/>
       <c r="BF28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1053.1299999999999</v>
       </c>
       <c r="BG28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1046.4000000000001</v>
       </c>
       <c r="BH28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1065</v>
       </c>
       <c r="BI28">
         <v>0</v>
       </c>
       <c r="BK28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.2225294298840723E-4</v>
       </c>
       <c r="BL28">
@@ -19328,7 +19328,7 @@
       </c>
       <c r="BQ28" s="112">
         <f>BQ27+BQ26</f>
-        <v>1053.4411029101673</v>
+        <v>1053.4412691343507</v>
       </c>
       <c r="BR28" s="19" t="s">
         <v>263</v>
@@ -19373,7 +19373,7 @@
       </c>
       <c r="AF29" s="1" t="str">
         <f>AA20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="1" t="str">
         <f>AC20</f>
@@ -19388,11 +19388,11 @@
         <v>-1.1801459301492716</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.5</v>
       </c>
       <c r="AK29" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.9685094384097497E-3</v>
       </c>
       <c r="AL29" s="1">
@@ -19420,22 +19420,22 @@
       </c>
       <c r="BA29" s="58"/>
       <c r="BF29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1058.2779999999998</v>
       </c>
       <c r="BG29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1046.4000000000001</v>
       </c>
       <c r="BH29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1082.48</v>
       </c>
       <c r="BI29">
         <v>0</v>
       </c>
       <c r="BK29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.7867592447351244E-3</v>
       </c>
       <c r="BL29">
@@ -19522,11 +19522,11 @@
         <v>1052.154</v>
       </c>
       <c r="BG30">
-        <f t="shared" ref="BG30" si="31">MIN(BG26:BG29)</f>
+        <f t="shared" ref="BG30" si="33">MIN(BG26:BG29)</f>
         <v>1046.4000000000001</v>
       </c>
       <c r="BH30">
-        <f t="shared" ref="BH30" si="32">MIN(BH26:BH29)</f>
+        <f t="shared" ref="BH30" si="34">MIN(BH26:BH29)</f>
         <v>1060.1199999999999</v>
       </c>
       <c r="BP30" s="18" t="s">
@@ -19609,11 +19609,11 @@
         <v>1058.2779999999998</v>
       </c>
       <c r="BG31">
-        <f t="shared" ref="BG31:BH31" si="33">MAX(BG26:BG29)</f>
+        <f t="shared" ref="BG31:BH31" si="35">MAX(BG26:BG29)</f>
         <v>1048.1400000000001</v>
       </c>
       <c r="BH31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1082.48</v>
       </c>
       <c r="BP31" s="18" t="s">
@@ -19705,36 +19705,36 @@
       <c r="AF32" s="15"/>
       <c r="AG32" s="24"/>
       <c r="AO32" s="37">
-        <f t="shared" ref="AO32:AR35" si="34">AH19</f>
+        <f t="shared" ref="AO32:AR35" si="36">AH19</f>
         <v>0</v>
       </c>
       <c r="AP32" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AQ32" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AR32" s="37">
-        <f t="shared" si="34"/>
-        <v>-1.8068364056724928E-3</v>
+        <f t="shared" si="36"/>
+        <v>-1.6311335809512046E-3</v>
       </c>
       <c r="AS32" s="102">
-        <f t="shared" ref="AS32:AV35" si="35">AM19</f>
+        <f t="shared" ref="AS32:AV35" si="37">AM19</f>
         <v>-1.4506626315549604E-3</v>
       </c>
       <c r="AT32" s="102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-2.5191215439868604E-3</v>
       </c>
       <c r="AU32" s="102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-1.9339920323793742E-3</v>
       </c>
       <c r="AV32" s="102">
-        <f t="shared" si="35"/>
-        <v>-3.1707080319176677E-3</v>
+        <f t="shared" si="37"/>
+        <v>-2.9950052071963792E-3</v>
       </c>
       <c r="BF32" t="s">
         <v>113</v>
@@ -19807,15 +19807,15 @@
       </c>
       <c r="U33" t="str">
         <f>AA17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="18"/>
-      <c r="X33" s="137">
+      <c r="X33" s="135">
         <f>U35-U32*U33</f>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="138"/>
-      <c r="Z33" s="139"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Y33" s="136"/>
+      <c r="Z33" s="137"/>
       <c r="AA33" s="19"/>
       <c r="AB33" s="18"/>
       <c r="AC33" s="19"/>
@@ -19826,35 +19826,35 @@
       <c r="AF33" s="19"/>
       <c r="AG33" s="20"/>
       <c r="AO33" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AP33" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AQ33" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AR33" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AS33" s="102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-3.321959317563145E-6</v>
       </c>
       <c r="AT33" s="102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-5.7686874281383578E-6</v>
       </c>
       <c r="AU33" s="102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-4.4287642848902734E-6</v>
       </c>
       <c r="AV33" s="102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-3.1232113919614014E-6</v>
       </c>
       <c r="BF33">
@@ -19872,16 +19872,16 @@
       </c>
       <c r="BK33" s="19">
         <f t="array" ref="BK33:BN36">MMULT(BJ20:BM23,BF33:BF36)</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BL33" s="19">
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BM33" s="19">
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BN33" s="19">
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BP33" s="70" t="s">
         <v>264</v>
@@ -19918,11 +19918,11 @@
         <v>1049.3699999999999</v>
       </c>
       <c r="C34" s="60">
-        <f t="shared" ref="C34:D34" si="36">MIN(C15:C18)</f>
+        <f t="shared" ref="C34:D34" si="38">MIN(C15:C18)</f>
         <v>1064.95</v>
       </c>
       <c r="D34" s="60">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1064.19</v>
       </c>
       <c r="H34" s="18"/>
@@ -19942,7 +19942,7 @@
       </c>
       <c r="U34" t="str">
         <f>AC17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="18"/>
       <c r="X34" s="9" t="s">
@@ -19961,36 +19961,36 @@
       <c r="AF34" s="19"/>
       <c r="AG34" s="20"/>
       <c r="AO34" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AP34" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AQ34" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AR34" s="37">
-        <f t="shared" si="34"/>
-        <v>-4.5216065401778015E-4</v>
+        <f t="shared" si="36"/>
+        <v>-4.081910373500333E-4</v>
       </c>
       <c r="AS34" s="102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-3.8064435555389565E-4</v>
       </c>
       <c r="AT34" s="102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-6.610009631563906E-4</v>
       </c>
       <c r="AU34" s="102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-5.0746681881667065E-4</v>
       </c>
       <c r="AV34" s="102">
-        <f t="shared" si="35"/>
-        <v>-8.1003161928408951E-4</v>
+        <f t="shared" si="37"/>
+        <v>-7.6606200261634266E-4</v>
       </c>
       <c r="BF34">
         <v>1.6600835766214523E-3</v>
@@ -20005,16 +20005,16 @@
         <v>0</v>
       </c>
       <c r="BK34" s="19">
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BL34" s="19">
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BM34" s="19">
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BN34" s="19">
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BP34" s="18"/>
       <c r="BQ34" s="19"/>
@@ -20042,15 +20042,15 @@
         <v>1068.1179999999999</v>
       </c>
       <c r="B35" s="61">
-        <f t="shared" ref="B35:D35" si="37">MAX(B15:B18)</f>
+        <f t="shared" ref="B35:D35" si="39">MAX(B15:B18)</f>
         <v>1063.6300000000001</v>
       </c>
       <c r="C35" s="61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1077.1400000000001</v>
       </c>
       <c r="D35" s="61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1077.1400000000001</v>
       </c>
       <c r="H35" s="18"/>
@@ -20075,12 +20075,12 @@
       <c r="W35" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="X35" s="137">
+      <c r="X35" s="135">
         <f>U35+U32*X33</f>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="138"/>
-      <c r="Z35" s="139"/>
+        <v>-0.25</v>
+      </c>
+      <c r="Y35" s="136"/>
+      <c r="Z35" s="137"/>
       <c r="AA35" s="19"/>
       <c r="AB35" s="18"/>
       <c r="AC35" s="19"/>
@@ -20091,36 +20091,36 @@
       <c r="AF35" s="83"/>
       <c r="AG35" s="20"/>
       <c r="AO35" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AP35" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AQ35" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AR35" s="37">
-        <f t="shared" si="34"/>
-        <v>-1.6453928405330613E-7</v>
+        <f t="shared" si="36"/>
+        <v>3.8708959738898604E-7</v>
       </c>
       <c r="AS35" s="102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6.7790308018514441E-7</v>
       </c>
       <c r="AT35" s="102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.1772001407377191E-6</v>
       </c>
       <c r="AU35" s="102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.0376571870344888E-7</v>
       </c>
       <c r="AV35" s="102">
-        <f t="shared" si="35"/>
-        <v>4.7280585484896191E-7</v>
+        <f t="shared" si="37"/>
+        <v>1.0244347362912541E-6</v>
       </c>
       <c r="BF35">
         <v>3.242554134949577E-3</v>
@@ -20135,16 +20135,16 @@
         <v>2.0656270785603545E-2</v>
       </c>
       <c r="BK35" s="19">
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BL35" s="19">
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BM35" s="19">
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BN35" s="19">
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BP35" s="18" t="s">
         <v>258</v>
@@ -20206,42 +20206,42 @@
       </c>
       <c r="AD36" s="85">
         <f>PRODUCT(X35,AD34)</f>
-        <v>0</v>
+        <v>-1.1988049960964995E-3</v>
       </c>
       <c r="AE36" s="33"/>
       <c r="AF36" s="33"/>
       <c r="AG36" s="20"/>
       <c r="AO36" s="39">
-        <f t="shared" ref="AO36:AR39" si="38">AR19</f>
-        <v>-1.4506626315549604E-3</v>
+        <f t="shared" ref="AO36:AR39" si="40">AR19</f>
+        <v>-1.8042515643181835E-3</v>
       </c>
       <c r="AP36" s="39">
-        <f t="shared" si="38"/>
-        <v>-2.5191215439868604E-3</v>
+        <f t="shared" si="40"/>
+        <v>-2.9767000306597409E-3</v>
       </c>
       <c r="AQ36" s="39">
-        <f t="shared" si="38"/>
-        <v>-1.9339920323793742E-3</v>
+        <f t="shared" si="40"/>
+        <v>-2.4463568061456236E-3</v>
       </c>
       <c r="AR36" s="39">
-        <f t="shared" si="38"/>
-        <v>-3.1707080319176677E-3</v>
+        <f t="shared" si="40"/>
+        <v>-3.1039489689705371E-3</v>
       </c>
       <c r="AS36" s="111">
-        <f t="shared" ref="AS36:AV39" si="39">AW19</f>
-        <v>-1.4506626315549604E-3</v>
+        <f t="shared" ref="AS36:AV39" si="41">AW19</f>
+        <v>-2.2696428368041339E-3</v>
       </c>
       <c r="AT36" s="111">
-        <f t="shared" si="39"/>
-        <v>-2.5191215439868604E-3</v>
+        <f t="shared" si="41"/>
+        <v>-3.7045814476046029E-3</v>
       </c>
       <c r="AU36" s="111">
-        <f t="shared" si="39"/>
-        <v>-1.9339920323793742E-3</v>
+        <f t="shared" si="41"/>
+        <v>-3.060773824297155E-3</v>
       </c>
       <c r="AV36" s="111">
-        <f t="shared" si="39"/>
-        <v>-3.1707080319176677E-3</v>
+        <f t="shared" si="41"/>
+        <v>-3.1039489689705371E-3</v>
       </c>
       <c r="BF36">
         <v>0</v>
@@ -20256,23 +20256,23 @@
         <v>0</v>
       </c>
       <c r="BK36" s="19">
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BL36" s="19">
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BM36" s="19">
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BN36" s="19">
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BP36" s="18" t="s">
         <v>258</v>
       </c>
       <c r="BQ36" s="19">
         <f>BQ35+BU25</f>
-        <v>0.31110291016739211</v>
+        <v>0.31126913435082315</v>
       </c>
       <c r="BR36" s="19"/>
       <c r="BS36" s="19"/>
@@ -20322,36 +20322,36 @@
       <c r="AF37" s="22"/>
       <c r="AG37" s="23"/>
       <c r="AO37" s="39">
-        <f t="shared" si="38"/>
-        <v>-3.321959317563145E-6</v>
+        <f t="shared" si="40"/>
+        <v>-5.265592248269812E-6</v>
       </c>
       <c r="AP37" s="39">
-        <f t="shared" si="38"/>
-        <v>-5.7686874281383578E-6</v>
+        <f t="shared" si="40"/>
+        <v>-8.2839375750536918E-6</v>
       </c>
       <c r="AQ37" s="39">
-        <f t="shared" si="38"/>
-        <v>-4.4287642848902734E-6</v>
+        <f t="shared" si="40"/>
+        <v>-7.2451676124599562E-6</v>
       </c>
       <c r="AR37" s="39">
-        <f t="shared" si="38"/>
-        <v>-3.1232113919614014E-6</v>
+        <f t="shared" si="40"/>
+        <v>-3.722061252234346E-6</v>
       </c>
       <c r="AS37" s="111">
-        <f t="shared" si="39"/>
-        <v>-3.321959317563145E-6</v>
+        <f t="shared" si="41"/>
+        <v>-7.6591557578596628E-6</v>
       </c>
       <c r="AT37" s="111">
-        <f t="shared" si="39"/>
-        <v>-5.7686874281383578E-6</v>
+        <f t="shared" si="41"/>
+        <v>-1.2027519592828582E-5</v>
       </c>
       <c r="AU37" s="111">
-        <f t="shared" si="39"/>
-        <v>-4.4287642848902734E-6</v>
+        <f t="shared" si="41"/>
+        <v>-1.0405188526610013E-5</v>
       </c>
       <c r="AV37" s="111">
-        <f t="shared" si="39"/>
-        <v>-3.1232113919614014E-6</v>
+        <f t="shared" si="41"/>
+        <v>-3.722061252234346E-6</v>
       </c>
       <c r="BF37" t="s">
         <v>115</v>
@@ -20434,36 +20434,36 @@
       <c r="AF38" s="15"/>
       <c r="AG38" s="24"/>
       <c r="AO38" s="39">
-        <f t="shared" si="38"/>
-        <v>-3.8064435555389565E-4</v>
+        <f t="shared" si="40"/>
+        <v>-4.7720066433493895E-4</v>
       </c>
       <c r="AP38" s="39">
-        <f t="shared" si="38"/>
-        <v>-6.610009631563906E-4</v>
+        <f t="shared" si="40"/>
+        <v>-7.8595422259659833E-4</v>
       </c>
       <c r="AQ38" s="39">
-        <f t="shared" si="38"/>
-        <v>-5.0746681881667065E-4</v>
+        <f t="shared" si="40"/>
+        <v>-6.4738084530412241E-4</v>
       </c>
       <c r="AR38" s="39">
-        <f t="shared" si="38"/>
-        <v>-8.1003161928408951E-4</v>
+        <f t="shared" si="40"/>
+        <v>-7.9581182374176263E-4</v>
       </c>
       <c r="AS38" s="111">
-        <f t="shared" si="39"/>
-        <v>-3.8064435555389565E-4</v>
+        <f t="shared" si="41"/>
+        <v>-4.7720066433493895E-4</v>
       </c>
       <c r="AT38" s="111">
-        <f t="shared" si="39"/>
-        <v>-6.610009631563906E-4</v>
+        <f t="shared" si="41"/>
+        <v>-7.8595422259659833E-4</v>
       </c>
       <c r="AU38" s="111">
-        <f t="shared" si="39"/>
-        <v>-5.0746681881667065E-4</v>
+        <f t="shared" si="41"/>
+        <v>-6.4738084530412241E-4</v>
       </c>
       <c r="AV38" s="111">
-        <f t="shared" si="39"/>
-        <v>-8.1003161928408951E-4</v>
+        <f t="shared" si="41"/>
+        <v>-7.9581182374176263E-4</v>
       </c>
       <c r="BZ38" s="33"/>
       <c r="CA38" s="33"/>
@@ -20504,11 +20504,11 @@
       <c r="X39" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="Y39" s="136" t="s">
+      <c r="Y39" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="Z39" s="136"/>
-      <c r="AA39" s="136"/>
+      <c r="Z39" s="134"/>
+      <c r="AA39" s="134"/>
       <c r="AB39" s="18"/>
       <c r="AC39" s="19"/>
       <c r="AD39" s="19"/>
@@ -20516,36 +20516,36 @@
       <c r="AF39" s="19"/>
       <c r="AG39" s="20"/>
       <c r="AO39" s="39">
-        <f t="shared" si="38"/>
-        <v>6.7790308018514441E-7</v>
+        <f t="shared" si="40"/>
+        <v>1.2543458752458025E-6</v>
       </c>
       <c r="AP39" s="39">
-        <f t="shared" si="38"/>
-        <v>1.1772001407377191E-6</v>
+        <f t="shared" si="40"/>
+        <v>1.9231732110938851E-6</v>
       </c>
       <c r="AQ39" s="39">
-        <f t="shared" si="38"/>
-        <v>9.0376571870344888E-7</v>
+        <f t="shared" si="40"/>
+        <v>1.7390548211432467E-6</v>
       </c>
       <c r="AR39" s="39">
-        <f t="shared" si="38"/>
-        <v>4.7280585484896191E-7</v>
+        <f t="shared" si="40"/>
+        <v>1.2020416711315234E-6</v>
       </c>
       <c r="AS39" s="111">
-        <f t="shared" si="39"/>
-        <v>6.7790308018514441E-7</v>
+        <f t="shared" si="41"/>
+        <v>-1.3146852275755449E-6</v>
       </c>
       <c r="AT39" s="111">
-        <f t="shared" si="39"/>
-        <v>1.1772001407377191E-6</v>
+        <f t="shared" si="41"/>
+        <v>-2.0948436917767538E-6</v>
       </c>
       <c r="AU39" s="111">
-        <f t="shared" si="39"/>
-        <v>9.0376571870344888E-7</v>
+        <f t="shared" si="41"/>
+        <v>-1.6526212223340937E-6</v>
       </c>
       <c r="AV39" s="111">
-        <f t="shared" si="39"/>
-        <v>4.7280585484896191E-7</v>
+        <f t="shared" si="41"/>
+        <v>1.2020416711315234E-6</v>
       </c>
       <c r="BF39" s="25" t="s">
         <v>83</v>
@@ -20620,7 +20620,7 @@
       <c r="X40" s="71"/>
       <c r="Y40" s="19">
         <f>MMULT(X35,U37)</f>
-        <v>0</v>
+        <v>-0.12545446671108451</v>
       </c>
       <c r="Z40" s="19"/>
       <c r="AA40" s="19"/>
@@ -20653,7 +20653,7 @@
       <c r="BT40" s="19"/>
       <c r="BU40" s="19">
         <f>ABS(BQ43-BQ48)</f>
-        <v>4.6219849501560475</v>
+        <v>4.621790962477462</v>
       </c>
       <c r="BV40" s="19"/>
       <c r="BW40" s="20"/>
@@ -20704,11 +20704,11 @@
       <c r="X41" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="Y41" s="136" t="s">
+      <c r="Y41" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="Z41" s="136"/>
-      <c r="AA41" s="136"/>
+      <c r="Z41" s="134"/>
+      <c r="AA41" s="134"/>
       <c r="AB41" s="18"/>
       <c r="AC41" s="19"/>
       <c r="AD41" s="19"/>
@@ -20722,7 +20722,7 @@
       <c r="BF41" s="18"/>
       <c r="BG41" s="19">
         <f>BK33</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BH41" s="19"/>
       <c r="BI41" s="19"/>
@@ -20731,11 +20731,11 @@
       </c>
       <c r="BK41" s="66">
         <f>BG41</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BL41" s="66">
         <f>BG42</f>
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BM41" s="19"/>
       <c r="BN41" s="20"/>
@@ -20744,7 +20744,7 @@
       </c>
       <c r="BQ41" s="19">
         <f>BH21*BQ40</f>
-        <v>1.5020150498437621</v>
+        <v>1.5022090375223611</v>
       </c>
       <c r="BR41" s="19"/>
       <c r="BS41" s="19"/>
@@ -20816,18 +20816,18 @@
       <c r="BF42" s="18"/>
       <c r="BG42" s="19">
         <f>BK34</f>
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BH42" s="19"/>
       <c r="BI42" s="19"/>
       <c r="BJ42" s="19"/>
       <c r="BK42" s="66">
         <f>BG43</f>
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BL42" s="66">
         <f>BG44</f>
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BM42" s="19"/>
       <c r="BN42" s="20"/>
@@ -20910,7 +20910,7 @@
       <c r="BF43" s="18"/>
       <c r="BG43" s="19">
         <f>BK35</f>
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BH43" s="19"/>
       <c r="BI43" s="19"/>
@@ -20924,7 +20924,7 @@
       </c>
       <c r="BQ43" s="112">
         <f>BQ42+BQ41</f>
-        <v>1053.6560150498437</v>
+        <v>1053.6562090375223</v>
       </c>
       <c r="BR43" s="19" t="s">
         <v>263</v>
@@ -20992,7 +20992,7 @@
       <c r="BF44" s="18"/>
       <c r="BG44" s="19">
         <f>BK36</f>
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BH44" s="19"/>
       <c r="BI44" s="19"/>
@@ -21086,7 +21086,7 @@
       <c r="X46" s="19"/>
       <c r="Y46" s="19">
         <f>Y40*Y44</f>
-        <v>0</v>
+        <v>-0.11676705515041043</v>
       </c>
       <c r="Z46" s="19"/>
       <c r="AA46" s="19"/>
@@ -21158,25 +21158,25 @@
       <c r="AG47" s="20"/>
       <c r="AP47" s="19">
         <f>$AK$46*AS36</f>
-        <v>-7.2533131577748024E-5</v>
+        <v>-1.134821418402067E-4</v>
       </c>
       <c r="AQ47" s="19">
-        <f t="shared" ref="AQ47:AS49" si="40">$AK$46*AT36</f>
-        <v>-1.2595607719934301E-4</v>
+        <f t="shared" ref="AQ47:AS49" si="42">$AK$46*AT36</f>
+        <v>-1.8522907238023014E-4</v>
       </c>
       <c r="AR47" s="19">
-        <f t="shared" si="40"/>
-        <v>-9.6699601618968717E-5</v>
+        <f t="shared" si="42"/>
+        <v>-1.5303869121485777E-4</v>
       </c>
       <c r="AS47" s="19">
-        <f t="shared" si="40"/>
-        <v>-1.5853540159588341E-4</v>
+        <f t="shared" si="42"/>
+        <v>-1.5519744844852686E-4</v>
       </c>
       <c r="BF47" s="18"/>
       <c r="BG47" s="19"/>
       <c r="BH47" s="19">
         <f>BK41</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BI47" s="19"/>
       <c r="BJ47" s="19"/>
@@ -21217,7 +21217,7 @@
       </c>
       <c r="Y48" s="19">
         <f>U36+Y46</f>
-        <v>0</v>
+        <v>-0.11676705515041043</v>
       </c>
       <c r="Z48" s="19"/>
       <c r="AA48" s="19"/>
@@ -21228,20 +21228,20 @@
       <c r="AF48" s="19"/>
       <c r="AG48" s="20"/>
       <c r="AP48" s="19">
-        <f t="shared" ref="AP48:AP49" si="41">$AK$46*AS37</f>
-        <v>-1.6609796587815727E-7</v>
+        <f t="shared" ref="AP48:AP49" si="43">$AK$46*AS37</f>
+        <v>-3.8295778789298316E-7</v>
       </c>
       <c r="AQ48" s="19">
-        <f t="shared" si="40"/>
-        <v>-2.8843437140691793E-7</v>
+        <f t="shared" si="42"/>
+        <v>-6.0137597964142912E-7</v>
       </c>
       <c r="AR48" s="19">
-        <f t="shared" si="40"/>
-        <v>-2.2143821424451367E-7</v>
+        <f t="shared" si="42"/>
+        <v>-5.2025942633050062E-7</v>
       </c>
       <c r="AS48" s="19">
-        <f t="shared" si="40"/>
-        <v>-1.5616056959807007E-7</v>
+        <f t="shared" si="42"/>
+        <v>-1.8610306261171732E-7</v>
       </c>
       <c r="BF48" s="18"/>
       <c r="BG48" s="19" t="s">
@@ -21249,7 +21249,7 @@
       </c>
       <c r="BH48" s="19">
         <f>TANH(BH47)</f>
-        <v>3.2091242851549182E-3</v>
+        <v>3.2095387010885662E-3</v>
       </c>
       <c r="BI48" s="19"/>
       <c r="BJ48" s="19"/>
@@ -21296,20 +21296,20 @@
       <c r="AF49" s="22"/>
       <c r="AG49" s="23"/>
       <c r="AP49" s="19">
-        <f t="shared" si="41"/>
-        <v>-1.9032217777694783E-5</v>
+        <f t="shared" si="43"/>
+        <v>-2.3860033216746948E-5</v>
       </c>
       <c r="AQ49" s="19">
-        <f t="shared" si="40"/>
-        <v>-3.3050048157819533E-5</v>
+        <f t="shared" si="42"/>
+        <v>-3.9297711129829922E-5</v>
       </c>
       <c r="AR49" s="19">
-        <f t="shared" si="40"/>
-        <v>-2.5373340940833534E-5</v>
+        <f t="shared" si="42"/>
+        <v>-3.236904226520612E-5</v>
       </c>
       <c r="AS49" s="19">
-        <f t="shared" si="40"/>
-        <v>-4.0501580964204476E-5</v>
+        <f t="shared" si="42"/>
+        <v>-3.9790591187088131E-5</v>
       </c>
       <c r="BF49" s="18"/>
       <c r="BG49" s="19"/>
@@ -21345,19 +21345,19 @@
       <c r="P50" s="20"/>
       <c r="AP50" s="19">
         <f>$AK$46*AS39</f>
-        <v>3.3895154009257219E-8</v>
+        <v>-6.5734261378777244E-8</v>
       </c>
       <c r="AQ50" s="19">
-        <f t="shared" ref="AQ50:AS50" si="42">$AK$46*AT39</f>
-        <v>5.886000703688596E-8</v>
+        <f t="shared" ref="AQ50:AS50" si="44">$AK$46*AT39</f>
+        <v>-1.047421845888377E-7</v>
       </c>
       <c r="AR50" s="19">
-        <f t="shared" si="42"/>
-        <v>4.5188285935172445E-8</v>
+        <f t="shared" si="44"/>
+        <v>-8.2631061116704693E-8</v>
       </c>
       <c r="AS50" s="19">
-        <f t="shared" si="42"/>
-        <v>2.3640292742448098E-8</v>
+        <f t="shared" si="44"/>
+        <v>6.0102083556576179E-8</v>
       </c>
       <c r="BF50" s="18"/>
       <c r="BG50" s="65" t="s">
@@ -21402,10 +21402,10 @@
       <c r="W51" s="89">
         <v>4</v>
       </c>
-      <c r="X51" s="146" t="s">
+      <c r="X51" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="Y51" s="146"/>
+      <c r="Y51" s="131"/>
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
       <c r="AB51" s="15"/>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="BQ51" s="19">
         <f>BQ50+BU40</f>
-        <v>4.6219849501560475</v>
+        <v>4.621790962477462</v>
       </c>
       <c r="BR51" s="19"/>
       <c r="BS51" s="19"/>
@@ -21473,7 +21473,7 @@
       <c r="BG52" s="19"/>
       <c r="BH52" s="19">
         <f>BL41</f>
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BI52" s="19"/>
       <c r="BJ52" s="19"/>
@@ -21507,7 +21507,7 @@
       </c>
       <c r="Y53" s="85">
         <f>PRODUCT(Y48,U40)</f>
-        <v>0</v>
+        <v>-1.1169182854953387E-3</v>
       </c>
       <c r="Z53" s="33"/>
       <c r="AA53" s="33"/>
@@ -21519,16 +21519,16 @@
       <c r="AG53" s="20"/>
       <c r="AO53" s="38">
         <f t="array" ref="AO53:AR56">K11:N14-AP47:AS50</f>
-        <v>9.2142803131577744E-2</v>
+        <v>9.21837521418402E-2</v>
       </c>
       <c r="AP53" s="38">
-        <v>-0.18048065392280066</v>
+        <v>-0.18042138092761978</v>
       </c>
       <c r="AQ53" s="38">
-        <v>0.98956244960161899</v>
+        <v>0.98961878869121489</v>
       </c>
       <c r="AR53" s="38">
-        <v>-0.48293222459840413</v>
+        <v>-0.48293556255155146</v>
       </c>
       <c r="BF53" s="18"/>
       <c r="BG53" s="19" t="s">
@@ -21536,7 +21536,7 @@
       </c>
       <c r="BH53" s="19">
         <f>1/(1+EXP(-BH52))</f>
-        <v>0.50086551667172052</v>
+        <v>0.50086551722036865</v>
       </c>
       <c r="BI53" s="19"/>
       <c r="BJ53" s="19"/>
@@ -21559,10 +21559,10 @@
       <c r="W54" s="80">
         <v>5</v>
       </c>
-      <c r="X54" s="142" t="s">
+      <c r="X54" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="Y54" s="142"/>
+      <c r="Y54" s="132"/>
       <c r="Z54" s="19"/>
       <c r="AA54" s="19"/>
       <c r="AB54" s="19"/>
@@ -21572,16 +21572,16 @@
       <c r="AF54" s="19"/>
       <c r="AG54" s="20"/>
       <c r="AO54" s="38">
-        <v>0.4641646960979659</v>
+        <v>0.46416491295778789</v>
       </c>
       <c r="AP54" s="38">
-        <v>-0.72592570156562863</v>
+        <v>-0.72592538862402034</v>
       </c>
       <c r="AQ54" s="38">
-        <v>0.9732263014382142</v>
+        <v>0.97322660025942631</v>
       </c>
       <c r="AR54" s="38">
-        <v>-0.13671345383943043</v>
+        <v>-0.13671342389693741</v>
       </c>
       <c r="BF54" s="18"/>
       <c r="BG54" s="19"/>
@@ -21635,16 +21635,16 @@
       <c r="AF55" s="19"/>
       <c r="AG55" s="20"/>
       <c r="AO55" s="38">
-        <v>-0.36400940778222229</v>
+        <v>-0.36400457996678326</v>
       </c>
       <c r="AP55" s="38">
-        <v>0.10982820004815781</v>
+        <v>0.10983444771112982</v>
       </c>
       <c r="AQ55" s="38">
-        <v>0.99235477334094091</v>
+        <v>0.99236176904226525</v>
       </c>
       <c r="AR55" s="38">
-        <v>0.9848198315809642</v>
+        <v>0.98481912059118704</v>
       </c>
       <c r="BF55" s="18"/>
       <c r="BG55" s="19"/>
@@ -21667,7 +21667,7 @@
       <c r="BT55" s="19"/>
       <c r="BU55" s="19">
         <f>ABS(BQ58-BQ63)</f>
-        <v>11.920410062747123</v>
+        <v>11.920202175396753</v>
       </c>
       <c r="BV55" s="19"/>
       <c r="BW55" s="20"/>
@@ -21691,7 +21691,7 @@
       </c>
       <c r="Y56" s="85">
         <f>PRODUCT(Y48,U41)</f>
-        <v>0</v>
+        <v>-5.8537088567488432E-2</v>
       </c>
       <c r="Z56" s="33"/>
       <c r="AA56" s="33"/>
@@ -21702,16 +21702,16 @@
       <c r="AF56" s="19"/>
       <c r="AG56" s="20"/>
       <c r="AO56" s="38">
-        <v>0.329024326104846</v>
+        <v>0.32902442573426138</v>
       </c>
       <c r="AP56" s="38">
-        <v>-0.31113304886000703</v>
+        <v>-0.31113288525781541</v>
       </c>
       <c r="AQ56" s="38">
-        <v>0.76189832481171416</v>
+        <v>0.76189845263106115</v>
       </c>
       <c r="AR56" s="38">
-        <v>-0.24283257364029276</v>
+        <v>-0.24283261010208357</v>
       </c>
       <c r="BF56" s="18"/>
       <c r="BG56" s="19"/>
@@ -21727,7 +21727,7 @@
       </c>
       <c r="BQ56" s="19">
         <f>BH22*BQ55</f>
-        <v>1.6095899372527598</v>
+        <v>1.6097978246032072</v>
       </c>
       <c r="BR56" s="19"/>
       <c r="BS56" s="19"/>
@@ -21753,10 +21753,10 @@
       <c r="W57" s="80">
         <v>6</v>
       </c>
-      <c r="X57" s="142" t="s">
+      <c r="X57" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="Y57" s="142"/>
+      <c r="Y57" s="132"/>
       <c r="Z57" s="19"/>
       <c r="AA57" s="19"/>
       <c r="AB57" s="19"/>
@@ -21835,7 +21835,7 @@
       </c>
       <c r="BQ58" s="112">
         <f>BQ57+BQ56</f>
-        <v>1053.7635899372528</v>
+        <v>1053.7637978246032</v>
       </c>
       <c r="BR58" s="19" t="s">
         <v>263</v>
@@ -21876,7 +21876,7 @@
       <c r="BG59" s="19"/>
       <c r="BH59" s="19">
         <f>BK42</f>
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BI59" s="19"/>
       <c r="BJ59" s="19"/>
@@ -21907,10 +21907,10 @@
       <c r="W60" s="80">
         <v>7</v>
       </c>
-      <c r="X60" s="142" t="s">
+      <c r="X60" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="Y60" s="142"/>
+      <c r="Y60" s="132"/>
       <c r="Z60" s="19"/>
       <c r="AA60" s="19"/>
       <c r="AB60" s="19"/>
@@ -21925,7 +21925,7 @@
       </c>
       <c r="BH60" s="19">
         <f>1/(1+EXP(-BH59))</f>
-        <v>0.50055369690660112</v>
+        <v>0.50055370910060515</v>
       </c>
       <c r="BI60" s="19"/>
       <c r="BJ60" s="19"/>
@@ -21957,11 +21957,11 @@
       <c r="P61" s="20"/>
       <c r="W61" s="18"/>
       <c r="X61" s="19"/>
-      <c r="Y61" s="147" t="s">
+      <c r="Y61" s="146" t="s">
         <v>179</v>
       </c>
-      <c r="Z61" s="147"/>
-      <c r="AA61" s="147"/>
+      <c r="Z61" s="146"/>
+      <c r="AA61" s="146"/>
       <c r="AB61" s="19"/>
       <c r="AC61" s="18"/>
       <c r="AD61" s="19"/>
@@ -22010,7 +22010,7 @@
       </c>
       <c r="Y62" s="85">
         <f>PRODUCT(Y48,U43)</f>
-        <v>0</v>
+        <v>-5.8663233009476817E-2</v>
       </c>
       <c r="Z62" s="33"/>
       <c r="AA62" s="33"/>
@@ -22046,14 +22046,14 @@
     <row r="63" spans="4:76">
       <c r="D63" s="44"/>
       <c r="H63" s="18"/>
-      <c r="I63" s="136" t="s">
+      <c r="I63" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="J63" s="136"/>
-      <c r="K63" s="136"/>
-      <c r="L63" s="136"/>
-      <c r="M63" s="136"/>
-      <c r="N63" s="136"/>
+      <c r="J63" s="134"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
+      <c r="N63" s="134"/>
       <c r="O63" s="19"/>
       <c r="P63" s="20"/>
       <c r="W63" s="18"/>
@@ -22146,10 +22146,10 @@
       <c r="W65" s="95">
         <v>8</v>
       </c>
-      <c r="X65" s="146" t="s">
+      <c r="X65" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="Y65" s="146"/>
+      <c r="Y65" s="131"/>
       <c r="Z65" s="15"/>
       <c r="AA65" s="15"/>
       <c r="AB65" s="14"/>
@@ -22212,7 +22212,7 @@
       <c r="BG66" s="19"/>
       <c r="BH66" s="19">
         <f>BL42</f>
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BI66" s="19"/>
       <c r="BJ66" s="19"/>
@@ -22225,7 +22225,7 @@
       </c>
       <c r="BQ66" s="19">
         <f>BQ65+BU55</f>
-        <v>11.920410062747123</v>
+        <v>11.920202175396753</v>
       </c>
       <c r="BR66" s="19"/>
       <c r="BS66" s="19"/>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="BH67" s="19">
         <f>1/(1+EXP(-BH66))</f>
-        <v>0.5007563418346509</v>
+        <v>0.50075634208726805</v>
       </c>
       <c r="BI67" s="19"/>
       <c r="BJ67" s="19"/>
@@ -22453,14 +22453,14 @@
       <c r="AF72" s="19"/>
       <c r="AG72" s="20"/>
       <c r="BF72" s="18"/>
-      <c r="BG72" s="136" t="s">
+      <c r="BG72" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="BH72" s="136"/>
-      <c r="BI72" s="136"/>
-      <c r="BJ72" s="136"/>
-      <c r="BK72" s="136"/>
-      <c r="BL72" s="136"/>
+      <c r="BH72" s="134"/>
+      <c r="BI72" s="134"/>
+      <c r="BJ72" s="134"/>
+      <c r="BK72" s="134"/>
+      <c r="BL72" s="134"/>
       <c r="BM72" s="19"/>
       <c r="BN72" s="20"/>
     </row>
@@ -22479,7 +22479,7 @@
       <c r="X73" s="19"/>
       <c r="Y73" s="19">
         <f>PRODUCT(Y56,Y71)</f>
-        <v>0</v>
+        <v>-5.4291480470199979E-2</v>
       </c>
       <c r="Z73" s="19"/>
       <c r="AA73" s="19"/>
@@ -22513,10 +22513,10 @@
       <c r="W74" s="93">
         <v>9</v>
       </c>
-      <c r="X74" s="142" t="s">
+      <c r="X74" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="Y74" s="142"/>
+      <c r="Y74" s="132"/>
       <c r="Z74" s="15"/>
       <c r="AA74" s="24"/>
       <c r="AB74" s="19"/>
@@ -22574,23 +22574,23 @@
     <row r="76" spans="4:75">
       <c r="D76" s="44"/>
       <c r="H76" s="18"/>
-      <c r="I76" s="137" t="s">
+      <c r="I76" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="J76" s="138"/>
-      <c r="K76" s="139"/>
-      <c r="L76" s="137" t="s">
+      <c r="J76" s="136"/>
+      <c r="K76" s="137"/>
+      <c r="L76" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="M76" s="138"/>
-      <c r="N76" s="139"/>
+      <c r="M76" s="136"/>
+      <c r="N76" s="137"/>
       <c r="O76" s="19"/>
       <c r="P76" s="20"/>
       <c r="W76" s="18"/>
       <c r="X76" s="19"/>
       <c r="Y76" s="19">
         <f>MMULT(Y53,U41)</f>
-        <v>0</v>
+        <v>-5.5992800808814572E-4</v>
       </c>
       <c r="Z76" s="19"/>
       <c r="AA76" s="20"/>
@@ -22613,18 +22613,18 @@
     <row r="77" spans="4:75">
       <c r="D77" s="44"/>
       <c r="H77" s="18"/>
-      <c r="I77" s="130">
+      <c r="I77" s="138">
         <f>PRODUCT(J51,G14)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="131"/>
-      <c r="K77" s="132"/>
-      <c r="L77" s="133">
+      <c r="J77" s="139"/>
+      <c r="K77" s="140"/>
+      <c r="L77" s="141">
         <f>PRODUCT(J44,J39)</f>
         <v>4.7952567388711582E-3</v>
       </c>
-      <c r="M77" s="134"/>
-      <c r="N77" s="135"/>
+      <c r="M77" s="142"/>
+      <c r="N77" s="143"/>
       <c r="O77" s="19"/>
       <c r="P77" s="20"/>
       <c r="W77" s="18"/>
@@ -22745,7 +22745,7 @@
       <c r="X80" s="19"/>
       <c r="Y80" s="19">
         <f>MMULT(Y76,Y78)</f>
-        <v>0</v>
+        <v>-2.7922763966099903E-4</v>
       </c>
       <c r="Z80" s="19"/>
       <c r="AA80" s="20"/>
@@ -22947,16 +22947,16 @@
       <c r="AF85" s="19"/>
       <c r="AG85" s="20"/>
       <c r="BF85" s="18"/>
-      <c r="BG85" s="137" t="s">
+      <c r="BG85" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="BH85" s="138"/>
-      <c r="BI85" s="139"/>
-      <c r="BJ85" s="137" t="s">
+      <c r="BH85" s="136"/>
+      <c r="BI85" s="137"/>
+      <c r="BJ85" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="BK85" s="138"/>
-      <c r="BL85" s="139"/>
+      <c r="BK85" s="136"/>
+      <c r="BL85" s="137"/>
       <c r="BM85" s="19"/>
       <c r="BN85" s="20"/>
     </row>
@@ -22978,18 +22978,18 @@
       <c r="AF86" s="19"/>
       <c r="AG86" s="20"/>
       <c r="BF86" s="18"/>
-      <c r="BG86" s="130">
+      <c r="BG86" s="138">
         <f>PRODUCT(BH60,BE23)</f>
         <v>0</v>
       </c>
-      <c r="BH86" s="131"/>
-      <c r="BI86" s="132"/>
-      <c r="BJ86" s="133">
+      <c r="BH86" s="139"/>
+      <c r="BI86" s="140"/>
+      <c r="BJ86" s="141">
         <f>PRODUCT(BH53,BH48)</f>
-        <v>1.6073396931478839E-3</v>
-      </c>
-      <c r="BK86" s="134"/>
-      <c r="BL86" s="135"/>
+        <v>1.6075472615595149E-3</v>
+      </c>
+      <c r="BK86" s="142"/>
+      <c r="BL86" s="143"/>
       <c r="BM86" s="19"/>
       <c r="BN86" s="20"/>
     </row>
@@ -23031,7 +23031,7 @@
       </c>
       <c r="BH87" s="19">
         <f>SUM(BG86:BL86)</f>
-        <v>1.6073396931478839E-3</v>
+        <v>1.6075472615595149E-3</v>
       </c>
       <c r="BI87" s="33"/>
       <c r="BJ87" s="19"/>
@@ -23144,7 +23144,7 @@
       <c r="X90" s="19"/>
       <c r="Y90" s="19">
         <f>PRODUCT(AD36,U37)</f>
-        <v>0</v>
+        <v>-6.0158176590348041E-4</v>
       </c>
       <c r="Z90" s="19"/>
       <c r="AA90" s="20"/>
@@ -23246,7 +23246,7 @@
       </c>
       <c r="BK92" s="19">
         <f>TANH(BH87)</f>
-        <v>1.6073383089400409E-3</v>
+        <v>1.6075458768153425E-3</v>
       </c>
       <c r="BL92" s="19"/>
       <c r="BM92" s="19"/>
@@ -23285,7 +23285,7 @@
       </c>
       <c r="Y94" s="85">
         <f>PRODUCT(Y90,Y92)</f>
-        <v>0</v>
+        <v>-2.9969728740534591E-4</v>
       </c>
       <c r="Z94" s="19"/>
       <c r="AA94" s="20"/>
@@ -23301,7 +23301,7 @@
       </c>
       <c r="BH94" s="19">
         <f>PRODUCT(BH67,BK92)</f>
-        <v>8.0488485167550883E-4</v>
+        <v>8.049887930115209E-4</v>
       </c>
       <c r="BI94" s="19"/>
       <c r="BJ94" s="19"/>
@@ -23334,10 +23334,10 @@
       <c r="W95" s="98">
         <v>12</v>
       </c>
-      <c r="X95" s="148" t="s">
+      <c r="X95" s="130" t="s">
         <v>214</v>
       </c>
-      <c r="Y95" s="148"/>
+      <c r="Y95" s="130"/>
       <c r="Z95" s="19"/>
       <c r="AA95" s="20"/>
       <c r="AB95" s="19"/>
@@ -23380,7 +23380,7 @@
       </c>
       <c r="BG96" s="15">
         <f>BH48</f>
-        <v>3.2091242851549182E-3</v>
+        <v>3.2095387010885662E-3</v>
       </c>
       <c r="BH96" s="15"/>
       <c r="BI96" s="15"/>
@@ -23416,7 +23416,7 @@
       </c>
       <c r="Y97" s="19">
         <f>Y73</f>
-        <v>0</v>
+        <v>-5.4291480470199979E-2</v>
       </c>
       <c r="Z97" s="19"/>
       <c r="AA97" s="19"/>
@@ -23431,7 +23431,7 @@
       </c>
       <c r="BG97" s="19">
         <f>BH60</f>
-        <v>0.50055369690660112</v>
+        <v>0.50055370910060515</v>
       </c>
       <c r="BH97" s="19"/>
       <c r="BI97" s="19"/>
@@ -23465,7 +23465,7 @@
       <c r="X98" s="19"/>
       <c r="Y98" s="19">
         <f>Y80</f>
-        <v>0</v>
+        <v>-2.7922763966099903E-4</v>
       </c>
       <c r="Z98" s="19"/>
       <c r="AA98" s="19"/>
@@ -23480,7 +23480,7 @@
       </c>
       <c r="BG98" s="19">
         <f>BH53</f>
-        <v>0.50086551667172052</v>
+        <v>0.50086551722036865</v>
       </c>
       <c r="BH98" s="19"/>
       <c r="BI98" s="19"/>
@@ -23523,7 +23523,7 @@
       </c>
       <c r="BG99" s="19">
         <f>BH67</f>
-        <v>0.5007563418346509</v>
+        <v>0.50075634208726805</v>
       </c>
       <c r="BH99" s="19"/>
       <c r="BI99" s="19"/>
@@ -23551,7 +23551,7 @@
       <c r="X100" s="22"/>
       <c r="Y100" s="22">
         <f>Y94</f>
-        <v>0</v>
+        <v>-2.9969728740534591E-4</v>
       </c>
       <c r="Z100" s="22"/>
       <c r="AA100" s="22"/>
@@ -23566,7 +23566,7 @@
       </c>
       <c r="BG100" s="19">
         <f>BH87</f>
-        <v>1.6073396931478839E-3</v>
+        <v>1.6075472615595149E-3</v>
       </c>
       <c r="BH100" s="19"/>
       <c r="BI100" s="19"/>
@@ -23594,10 +23594,10 @@
       <c r="W101" s="98">
         <v>13</v>
       </c>
-      <c r="X101" s="148" t="s">
+      <c r="X101" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="Y101" s="148"/>
+      <c r="Y101" s="130"/>
       <c r="Z101" s="19" t="s">
         <v>75</v>
       </c>
@@ -23607,7 +23607,7 @@
       </c>
       <c r="BG101" s="22">
         <f>BH94</f>
-        <v>8.0488485167550883E-4</v>
+        <v>8.049887930115209E-4</v>
       </c>
       <c r="BH101" s="22"/>
       <c r="BI101" s="22"/>
@@ -23658,7 +23658,7 @@
       </c>
       <c r="Y103" s="19">
         <f t="array" ref="Y103:Y106">MMULT($AA$11:$AD$14,Y97:Y100)</f>
-        <v>0</v>
+        <v>-5.2268465398995758E-3</v>
       </c>
       <c r="Z103" s="19"/>
     </row>
@@ -23679,7 +23679,7 @@
       <c r="O104" s="19"/>
       <c r="P104" s="20"/>
       <c r="Y104">
-        <v>0</v>
+        <v>1.0101344553485613E-2</v>
       </c>
       <c r="AA104" t="s">
         <v>213</v>
@@ -23716,20 +23716,20 @@
       <c r="O105" s="19"/>
       <c r="P105" s="20"/>
       <c r="Y105">
-        <v>0</v>
+        <v>-5.4219650937999256E-2</v>
       </c>
       <c r="AA105" s="19">
         <f t="array" ref="AA105:AD105">TRANSPOSE(Y103:Y106)</f>
-        <v>0</v>
+        <v>-5.2268465398995758E-3</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>1.0101344553485613E-2</v>
       </c>
       <c r="AC105">
-        <v>0</v>
+        <v>-5.4219650937999256E-2</v>
       </c>
       <c r="AD105">
-        <v>0</v>
+        <v>2.6338663037032622E-2</v>
       </c>
       <c r="BF105" s="18"/>
       <c r="BG105" s="65" t="s">
@@ -23757,23 +23757,23 @@
       <c r="O106" s="19"/>
       <c r="P106" s="20"/>
       <c r="Y106">
-        <v>0</v>
+        <v>2.6338663037032622E-2</v>
       </c>
       <c r="BF106" s="18"/>
       <c r="BG106" s="19">
         <f>BL33</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BH106" s="19"/>
       <c r="BI106" s="19"/>
       <c r="BJ106" s="19"/>
       <c r="BK106" s="66">
         <f>BG106</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BL106" s="66">
         <f>BG107</f>
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BM106" s="19"/>
       <c r="BN106" s="20"/>
@@ -23794,27 +23794,27 @@
       <c r="W107" s="98">
         <v>14</v>
       </c>
-      <c r="X107" s="142" t="s">
+      <c r="X107" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="Y107" s="142"/>
+      <c r="Y107" s="132"/>
       <c r="Z107" s="19"/>
       <c r="AA107" s="19"/>
       <c r="BF107" s="18"/>
       <c r="BG107" s="19">
         <f>BL34</f>
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BH107" s="19"/>
       <c r="BI107" s="19"/>
       <c r="BJ107" s="19"/>
       <c r="BK107" s="66">
         <f>BG108</f>
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BL107" s="66">
         <f>BG109</f>
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BM107" s="19"/>
       <c r="BN107" s="20"/>
@@ -23843,7 +23843,7 @@
       <c r="BF108" s="18"/>
       <c r="BG108" s="19">
         <f>BL35</f>
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BH108" s="19"/>
       <c r="BI108" s="19"/>
@@ -23873,14 +23873,14 @@
       <c r="X109" s="19"/>
       <c r="Y109" s="19">
         <f>$AD$105</f>
-        <v>0</v>
+        <v>2.6338663037032622E-2</v>
       </c>
       <c r="Z109" s="19"/>
       <c r="AA109" s="19"/>
       <c r="BF109" s="18"/>
       <c r="BG109" s="19">
         <f>BL36</f>
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BH109" s="19"/>
       <c r="BI109" s="19"/>
@@ -23940,10 +23940,10 @@
       <c r="W111" s="100">
         <v>15</v>
       </c>
-      <c r="X111" s="142" t="s">
+      <c r="X111" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="Y111" s="142"/>
+      <c r="Y111" s="132"/>
       <c r="Z111" s="19"/>
       <c r="AA111" s="19"/>
       <c r="BF111" s="18"/>
@@ -23979,7 +23979,7 @@
       <c r="BG112" s="19"/>
       <c r="BH112" s="19">
         <f>BK106</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BI112" s="19"/>
       <c r="BJ112" s="19"/>
@@ -24003,13 +24003,13 @@
       <c r="P113" s="20"/>
       <c r="Y113">
         <f t="array" ref="Y113:AB116">MMULT(Y97:Y100,X31:AA31)</f>
-        <v>0</v>
+        <v>-4.6539127248595031E-4</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-7.2788141694486188E-4</v>
       </c>
       <c r="AA113">
-        <v>0</v>
+        <v>-6.1441701815153152E-4</v>
       </c>
       <c r="AB113">
         <v>0</v>
@@ -24020,7 +24020,7 @@
       </c>
       <c r="BH113" s="19">
         <f>TANH(BH112)</f>
-        <v>3.2091242851549182E-3</v>
+        <v>3.2095387010885662E-3</v>
       </c>
       <c r="BI113" s="19"/>
       <c r="BJ113" s="19"/>
@@ -24043,13 +24043,13 @@
       <c r="O114" s="19"/>
       <c r="P114" s="20"/>
       <c r="Y114">
-        <v>0</v>
+        <v>-2.3935635095898512E-6</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-3.7435820177748902E-6</v>
       </c>
       <c r="AA114">
-        <v>0</v>
+        <v>-3.1600209141500575E-6</v>
       </c>
       <c r="AB114">
         <v>0</v>
@@ -24119,13 +24119,13 @@
       <c r="O116" s="19"/>
       <c r="P116" s="20"/>
       <c r="Y116">
-        <v>0</v>
+        <v>-2.5690311028213474E-6</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-4.0180169028706389E-6</v>
       </c>
       <c r="AA116">
-        <v>0</v>
+        <v>-3.3916760434773404E-6</v>
       </c>
       <c r="AB116">
         <v>0</v>
@@ -24157,7 +24157,7 @@
       <c r="BG117" s="19"/>
       <c r="BH117" s="19">
         <f>BL106</f>
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BI117" s="19"/>
       <c r="BJ117" s="19"/>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="BH118" s="19">
         <f>1/(1+EXP(-BH117))</f>
-        <v>0.50086551667172052</v>
+        <v>0.50086551722036865</v>
       </c>
       <c r="BI118" s="19"/>
       <c r="BJ118" s="19"/>
@@ -24211,7 +24211,7 @@
       </c>
       <c r="Y119">
         <f>$Y$48</f>
-        <v>0</v>
+        <v>-0.11676705515041043</v>
       </c>
       <c r="BF119" s="18"/>
       <c r="BG119" s="19"/>
@@ -24241,7 +24241,7 @@
       </c>
       <c r="Y120">
         <f>Y109</f>
-        <v>0</v>
+        <v>2.6338663037032622E-2</v>
       </c>
       <c r="BF120" s="18"/>
       <c r="BG120" s="19"/>
@@ -24271,15 +24271,15 @@
       </c>
       <c r="Y121" s="1">
         <f>Y113</f>
-        <v>0</v>
+        <v>-4.6539127248595031E-4</v>
       </c>
       <c r="Z121" s="1">
         <f>Z113</f>
-        <v>0</v>
+        <v>-7.2788141694486188E-4</v>
       </c>
       <c r="AA121" s="1">
         <f>AA113</f>
-        <v>0</v>
+        <v>-6.1441701815153152E-4</v>
       </c>
       <c r="AB121" s="1">
         <f>AB113</f>
@@ -24310,19 +24310,19 @@
       <c r="O122" s="19"/>
       <c r="P122" s="20"/>
       <c r="Y122" s="1">
-        <f t="shared" ref="Y122:AB124" si="43">Y114</f>
-        <v>0</v>
+        <f t="shared" ref="Y122:AB124" si="45">Y114</f>
+        <v>-2.3935635095898512E-6</v>
       </c>
       <c r="Z122" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>-3.7435820177748902E-6</v>
       </c>
       <c r="AA122" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>-3.1600209141500575E-6</v>
       </c>
       <c r="AB122" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BF122" s="18"/>
@@ -24354,19 +24354,19 @@
       <c r="O123" s="19"/>
       <c r="P123" s="20"/>
       <c r="Y123" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Z123" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AA123" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AB123" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BF123" s="18"/>
@@ -24393,26 +24393,26 @@
       <c r="O124" s="19"/>
       <c r="P124" s="20"/>
       <c r="Y124" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>-2.5690311028213474E-6</v>
       </c>
       <c r="Z124" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>-4.0180169028706389E-6</v>
       </c>
       <c r="AA124" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>-3.3916760434773404E-6</v>
       </c>
       <c r="AB124" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BF124" s="18"/>
       <c r="BG124" s="19"/>
       <c r="BH124" s="19">
         <f>BK107</f>
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BI124" s="19"/>
       <c r="BJ124" s="19"/>
@@ -24438,7 +24438,7 @@
       </c>
       <c r="BH125" s="19">
         <f>1/(1+EXP(-BH124))</f>
-        <v>0.50055369690660112</v>
+        <v>0.50055370910060515</v>
       </c>
       <c r="BI125" s="19"/>
       <c r="BJ125" s="19"/>
@@ -24518,14 +24518,14 @@
     <row r="128" spans="4:66">
       <c r="D128" s="44"/>
       <c r="H128" s="18"/>
-      <c r="I128" s="136" t="s">
+      <c r="I128" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="J128" s="136"/>
-      <c r="K128" s="136"/>
-      <c r="L128" s="136"/>
-      <c r="M128" s="136"/>
-      <c r="N128" s="136"/>
+      <c r="J128" s="134"/>
+      <c r="K128" s="134"/>
+      <c r="L128" s="134"/>
+      <c r="M128" s="134"/>
+      <c r="N128" s="134"/>
       <c r="O128" s="19"/>
       <c r="P128" s="20"/>
       <c r="U128">
@@ -24576,12 +24576,12 @@
         <v>0</v>
       </c>
       <c r="W129" s="18"/>
-      <c r="X129" s="137">
+      <c r="X129" s="135">
         <f>U131-U128*U129</f>
-        <v>0</v>
-      </c>
-      <c r="Y129" s="138"/>
-      <c r="Z129" s="139"/>
+        <v>2.6338663037032622E-2</v>
+      </c>
+      <c r="Y129" s="136"/>
+      <c r="Z129" s="137"/>
       <c r="AA129" s="19"/>
       <c r="AB129" s="18"/>
       <c r="AC129" s="19"/>
@@ -24657,17 +24657,17 @@
       <c r="O131" s="19"/>
       <c r="P131" s="20"/>
       <c r="U131">
-        <v>0</v>
+        <v>2.6338663037032622E-2</v>
       </c>
       <c r="W131" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="X131" s="137">
+      <c r="X131" s="135">
         <f>U131+U128*X129</f>
-        <v>0</v>
-      </c>
-      <c r="Y131" s="138"/>
-      <c r="Z131" s="139"/>
+        <v>3.9507994555548931E-2</v>
+      </c>
+      <c r="Y131" s="136"/>
+      <c r="Z131" s="137"/>
       <c r="AA131" s="19"/>
       <c r="AB131" s="18"/>
       <c r="AC131" s="19"/>
@@ -24681,7 +24681,7 @@
       <c r="BG131" s="19"/>
       <c r="BH131" s="19">
         <f>BL107</f>
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BI131" s="19"/>
       <c r="BJ131" s="19"/>
@@ -24702,7 +24702,7 @@
       <c r="O132" s="19"/>
       <c r="P132" s="20"/>
       <c r="U132">
-        <v>0</v>
+        <v>-0.11676705515041043</v>
       </c>
       <c r="W132" s="21"/>
       <c r="X132" s="22"/>
@@ -24715,7 +24715,7 @@
       </c>
       <c r="AD132" s="85">
         <f>PRODUCT(X131,AD130)</f>
-        <v>0</v>
+        <v>2.9523802162571318E-4</v>
       </c>
       <c r="AE132" s="33"/>
       <c r="AF132" s="33"/>
@@ -24726,7 +24726,7 @@
       </c>
       <c r="BH132" s="19">
         <f>1/(1+EXP(-BH131))</f>
-        <v>0.5007563418346509</v>
+        <v>0.50075634208726805</v>
       </c>
       <c r="BI132" s="19"/>
       <c r="BJ132" s="19"/>
@@ -24822,11 +24822,11 @@
       <c r="X135" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="Y135" s="136" t="s">
+      <c r="Y135" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="Z135" s="136"/>
-      <c r="AA135" s="136"/>
+      <c r="Z135" s="134"/>
+      <c r="AA135" s="134"/>
       <c r="AB135" s="18"/>
       <c r="AC135" s="19"/>
       <c r="AD135" s="19"/>
@@ -24861,7 +24861,7 @@
       <c r="X136" s="73"/>
       <c r="Y136" s="19">
         <f>MMULT(X131,U133)</f>
-        <v>0</v>
+        <v>1.9833481984320459E-2</v>
       </c>
       <c r="Z136" s="19"/>
       <c r="AA136" s="19"/>
@@ -24901,11 +24901,11 @@
       <c r="X137" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="Y137" s="136" t="s">
+      <c r="Y137" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="Z137" s="136"/>
-      <c r="AA137" s="136"/>
+      <c r="Z137" s="134"/>
+      <c r="AA137" s="134"/>
       <c r="AB137" s="18"/>
       <c r="AC137" s="19"/>
       <c r="AD137" s="19"/>
@@ -24913,14 +24913,14 @@
       <c r="AF137" s="19"/>
       <c r="AG137" s="20"/>
       <c r="BF137" s="18"/>
-      <c r="BG137" s="136" t="s">
+      <c r="BG137" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="BH137" s="136"/>
-      <c r="BI137" s="136"/>
-      <c r="BJ137" s="136"/>
-      <c r="BK137" s="136"/>
-      <c r="BL137" s="136"/>
+      <c r="BH137" s="134"/>
+      <c r="BI137" s="134"/>
+      <c r="BJ137" s="134"/>
+      <c r="BK137" s="134"/>
+      <c r="BL137" s="134"/>
       <c r="BM137" s="19"/>
       <c r="BN137" s="20"/>
     </row>
@@ -25042,16 +25042,16 @@
     <row r="141" spans="4:66">
       <c r="D141" s="44"/>
       <c r="H141" s="18"/>
-      <c r="I141" s="137" t="s">
+      <c r="I141" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="J141" s="138"/>
-      <c r="K141" s="139"/>
-      <c r="L141" s="137" t="s">
+      <c r="J141" s="136"/>
+      <c r="K141" s="137"/>
+      <c r="L141" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="M141" s="138"/>
-      <c r="N141" s="139"/>
+      <c r="M141" s="136"/>
+      <c r="N141" s="137"/>
       <c r="O141" s="19"/>
       <c r="P141" s="20"/>
       <c r="W141" s="18"/>
@@ -25082,25 +25082,25 @@
     <row r="142" spans="4:66">
       <c r="D142" s="44"/>
       <c r="H142" s="18"/>
-      <c r="I142" s="130">
+      <c r="I142" s="138">
         <f>PRODUCT(J116,J78)</f>
         <v>2.4090132120665846E-3</v>
       </c>
-      <c r="J142" s="131"/>
-      <c r="K142" s="132"/>
-      <c r="L142" s="133">
+      <c r="J142" s="139"/>
+      <c r="K142" s="140"/>
+      <c r="L142" s="141">
         <f>PRODUCT(J109,J104)</f>
         <v>5.0639937290440041E-3</v>
       </c>
-      <c r="M142" s="134"/>
-      <c r="N142" s="135"/>
+      <c r="M142" s="142"/>
+      <c r="N142" s="143"/>
       <c r="O142" s="19"/>
       <c r="P142" s="20"/>
       <c r="W142" s="18"/>
       <c r="X142" s="19"/>
       <c r="Y142" s="19">
         <f>Y136*Y140</f>
-        <v>0</v>
+        <v>1.8118961743122278E-2</v>
       </c>
       <c r="Z142" s="19"/>
       <c r="AA142" s="19"/>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="Y144" s="19">
         <f>U132+Y142</f>
-        <v>0</v>
+        <v>-9.8648093407288154E-2</v>
       </c>
       <c r="Z144" s="19"/>
       <c r="AA144" s="19"/>
@@ -25269,10 +25269,10 @@
       <c r="W147" s="89">
         <v>4</v>
       </c>
-      <c r="X147" s="146" t="s">
+      <c r="X147" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="Y147" s="146"/>
+      <c r="Y147" s="131"/>
       <c r="Z147" s="15"/>
       <c r="AA147" s="15"/>
       <c r="AB147" s="15"/>
@@ -25347,7 +25347,7 @@
       </c>
       <c r="Y149" s="85">
         <f>PRODUCT(Y144,U136)</f>
-        <v>0</v>
+        <v>-9.9547206612631152E-4</v>
       </c>
       <c r="Z149" s="33"/>
       <c r="AA149" s="33"/>
@@ -25386,10 +25386,10 @@
       <c r="W150" s="80">
         <v>5</v>
       </c>
-      <c r="X150" s="142" t="s">
+      <c r="X150" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="Y150" s="142"/>
+      <c r="Y150" s="132"/>
       <c r="Z150" s="19"/>
       <c r="AA150" s="19"/>
       <c r="AB150" s="19"/>
@@ -25399,16 +25399,16 @@
       <c r="AF150" s="19"/>
       <c r="AG150" s="20"/>
       <c r="BF150" s="18"/>
-      <c r="BG150" s="137" t="s">
+      <c r="BG150" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="BH150" s="138"/>
-      <c r="BI150" s="139"/>
-      <c r="BJ150" s="137" t="s">
+      <c r="BH150" s="136"/>
+      <c r="BI150" s="137"/>
+      <c r="BJ150" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="BK150" s="138"/>
-      <c r="BL150" s="139"/>
+      <c r="BK150" s="136"/>
+      <c r="BL150" s="137"/>
       <c r="BM150" s="19"/>
       <c r="BN150" s="20"/>
     </row>
@@ -25430,18 +25430,18 @@
       <c r="AF151" s="19"/>
       <c r="AG151" s="20"/>
       <c r="BF151" s="18"/>
-      <c r="BG151" s="130">
+      <c r="BG151" s="138">
         <f>PRODUCT(BH125,BH87)</f>
-        <v>8.0455982558989511E-4</v>
-      </c>
-      <c r="BH151" s="131"/>
-      <c r="BI151" s="132"/>
-      <c r="BJ151" s="133">
+        <v>8.0466374432813586E-4</v>
+      </c>
+      <c r="BH151" s="139"/>
+      <c r="BI151" s="140"/>
+      <c r="BJ151" s="141">
         <f>PRODUCT(BH118,BH113)</f>
-        <v>1.6073396931478839E-3</v>
-      </c>
-      <c r="BK151" s="134"/>
-      <c r="BL151" s="135"/>
+        <v>1.6075472615595149E-3</v>
+      </c>
+      <c r="BK151" s="142"/>
+      <c r="BL151" s="143"/>
       <c r="BM151" s="19"/>
       <c r="BN151" s="20"/>
     </row>
@@ -25467,7 +25467,7 @@
       </c>
       <c r="Y152" s="85">
         <f>PRODUCT(Y144,U137)</f>
-        <v>0</v>
+        <v>-4.9504134652479256E-2</v>
       </c>
       <c r="Z152" s="33"/>
       <c r="AA152" s="33"/>
@@ -25483,7 +25483,7 @@
       </c>
       <c r="BH152" s="19">
         <f>SUM(BG151:BL151)</f>
-        <v>2.4118995187377788E-3</v>
+        <v>2.4122110058876507E-3</v>
       </c>
       <c r="BI152" s="33"/>
       <c r="BJ152" s="19"/>
@@ -25511,10 +25511,10 @@
       <c r="W153" s="80">
         <v>6</v>
       </c>
-      <c r="X153" s="142" t="s">
+      <c r="X153" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="Y153" s="142"/>
+      <c r="Y153" s="132"/>
       <c r="Z153" s="19"/>
       <c r="AA153" s="19"/>
       <c r="AB153" s="19"/>
@@ -25582,7 +25582,7 @@
       </c>
       <c r="Y155" s="85">
         <f>PRODUCT(Y144,U138)</f>
-        <v>0</v>
+        <v>-4.9453779350330747E-2</v>
       </c>
       <c r="Z155" s="33"/>
       <c r="AA155" s="33"/>
@@ -25616,10 +25616,10 @@
       <c r="W156" s="80">
         <v>7</v>
       </c>
-      <c r="X156" s="142" t="s">
+      <c r="X156" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="Y156" s="142"/>
+      <c r="Y156" s="132"/>
       <c r="Z156" s="19"/>
       <c r="AA156" s="19"/>
       <c r="AB156" s="19"/>
@@ -25649,11 +25649,11 @@
       </c>
       <c r="W157" s="18"/>
       <c r="X157" s="19"/>
-      <c r="Y157" s="147" t="s">
+      <c r="Y157" s="146" t="s">
         <v>179</v>
       </c>
-      <c r="Z157" s="147"/>
-      <c r="AA157" s="147"/>
+      <c r="Z157" s="146"/>
+      <c r="AA157" s="146"/>
       <c r="AB157" s="19"/>
       <c r="AC157" s="18"/>
       <c r="AD157" s="19"/>
@@ -25669,7 +25669,7 @@
       </c>
       <c r="BK157" s="19">
         <f>TANH(BH152)</f>
-        <v>2.4118948418670356E-3</v>
+        <v>2.4122063272046788E-3</v>
       </c>
       <c r="BL157" s="19"/>
       <c r="BM157" s="19"/>
@@ -25683,7 +25683,7 @@
       </c>
       <c r="Y158" s="85">
         <f>PRODUCT(Y144,U139)</f>
-        <v>0</v>
+        <v>-4.9558255856657039E-2</v>
       </c>
       <c r="Z158" s="33"/>
       <c r="AA158" s="33"/>
@@ -25722,7 +25722,7 @@
       </c>
       <c r="BH159" s="19">
         <f>PRODUCT(BH132,BK157)</f>
-        <v>1.2077716379032006E-3</v>
+        <v>1.2079276167707785E-3</v>
       </c>
       <c r="BI159" s="19"/>
       <c r="BJ159" s="19"/>
@@ -25771,10 +25771,10 @@
       <c r="W161" s="95">
         <v>8</v>
       </c>
-      <c r="X161" s="146" t="s">
+      <c r="X161" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="Y161" s="146"/>
+      <c r="Y161" s="131"/>
       <c r="Z161" s="15"/>
       <c r="AA161" s="15"/>
       <c r="AB161" s="14"/>
@@ -25788,7 +25788,7 @@
       </c>
       <c r="BG161" s="15">
         <f>BH113</f>
-        <v>3.2091242851549182E-3</v>
+        <v>3.2095387010885662E-3</v>
       </c>
       <c r="BH161" s="15"/>
       <c r="BI161" s="15"/>
@@ -25831,7 +25831,7 @@
       </c>
       <c r="BG162" s="19">
         <f>BH125</f>
-        <v>0.50055369690660112</v>
+        <v>0.50055370910060515</v>
       </c>
       <c r="BH162" s="22"/>
       <c r="BI162" s="22"/>
@@ -25880,7 +25880,7 @@
       </c>
       <c r="BG163" s="19">
         <f>BH118</f>
-        <v>0.50086551667172052</v>
+        <v>0.50086551722036865</v>
       </c>
     </row>
     <row r="164" spans="4:66">
@@ -25923,7 +25923,7 @@
       </c>
       <c r="BG164" s="19">
         <f>BH132</f>
-        <v>0.5007563418346509</v>
+        <v>0.50075634208726805</v>
       </c>
     </row>
     <row r="165" spans="4:66">
@@ -25959,7 +25959,7 @@
       </c>
       <c r="BG165" s="19">
         <f>BH152</f>
-        <v>2.4118995187377788E-3</v>
+        <v>2.4122110058876507E-3</v>
       </c>
     </row>
     <row r="166" spans="4:66">
@@ -25996,7 +25996,7 @@
       </c>
       <c r="BG166" s="22">
         <f>BH159</f>
-        <v>1.2077716379032006E-3</v>
+        <v>1.2079276167707785E-3</v>
       </c>
     </row>
     <row r="167" spans="4:66">
@@ -26076,7 +26076,7 @@
       <c r="X169" s="19"/>
       <c r="Y169" s="19">
         <f>PRODUCT(Y152,Y167)</f>
-        <v>0</v>
+        <v>-4.5273879607430331E-2</v>
       </c>
       <c r="Z169" s="19"/>
       <c r="AA169" s="19"/>
@@ -26106,10 +26106,10 @@
       <c r="W170" s="93">
         <v>9</v>
       </c>
-      <c r="X170" s="142" t="s">
+      <c r="X170" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="Y170" s="142"/>
+      <c r="Y170" s="132"/>
       <c r="Z170" s="15"/>
       <c r="AA170" s="24"/>
       <c r="AB170" s="19"/>
@@ -26193,7 +26193,7 @@
       <c r="X172" s="19"/>
       <c r="Y172" s="19">
         <f>MMULT(Y149,U137)</f>
-        <v>0</v>
+        <v>-4.995533263966543E-4</v>
       </c>
       <c r="Z172" s="19"/>
       <c r="AA172" s="20"/>
@@ -26206,18 +26206,18 @@
       <c r="BF172" s="18"/>
       <c r="BG172" s="19">
         <f>BM33</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BH172" s="19"/>
       <c r="BI172" s="19"/>
       <c r="BJ172" s="19"/>
       <c r="BK172" s="66">
         <f>BG172</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BL172" s="66">
         <f>BG173</f>
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BM172" s="19"/>
       <c r="BN172" s="20"/>
@@ -26253,18 +26253,18 @@
       <c r="BF173" s="18"/>
       <c r="BG173" s="19">
         <f>BM34</f>
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BH173" s="19"/>
       <c r="BI173" s="19"/>
       <c r="BJ173" s="19"/>
       <c r="BK173" s="66">
         <f>BG174</f>
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BL173" s="66">
         <f>BG175</f>
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BM173" s="19"/>
       <c r="BN173" s="20"/>
@@ -26300,7 +26300,7 @@
       <c r="BF174" s="18"/>
       <c r="BG174" s="19">
         <f>BM35</f>
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BH174" s="19"/>
       <c r="BI174" s="19"/>
@@ -26344,7 +26344,7 @@
       <c r="BF175" s="18"/>
       <c r="BG175" s="19">
         <f>BM36</f>
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BH175" s="19"/>
       <c r="BI175" s="19"/>
@@ -26369,7 +26369,7 @@
       <c r="X176" s="19"/>
       <c r="Y176" s="19">
         <f>MMULT(Y172,Y174)</f>
-        <v>0</v>
+        <v>-2.4886469895474939E-4</v>
       </c>
       <c r="Z176" s="19"/>
       <c r="AA176" s="20"/>
@@ -26461,7 +26461,7 @@
       <c r="BG178" s="19"/>
       <c r="BH178" s="19">
         <f>BK172</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BI178" s="19"/>
       <c r="BJ178" s="19"/>
@@ -26487,7 +26487,7 @@
       <c r="X179" s="19"/>
       <c r="Y179" s="19">
         <f>PRODUCT(Y155,U139)</f>
-        <v>0</v>
+        <v>-2.4844302261408779E-2</v>
       </c>
       <c r="Z179" s="19"/>
       <c r="AA179" s="20"/>
@@ -26503,7 +26503,7 @@
       </c>
       <c r="BH179" s="19">
         <f>TANH(BH178)</f>
-        <v>3.2091242851549182E-3</v>
+        <v>3.2095387010885662E-3</v>
       </c>
       <c r="BI179" s="19"/>
       <c r="BJ179" s="19"/>
@@ -26648,7 +26648,7 @@
       </c>
       <c r="Y183" s="91">
         <f>PRODUCT(Y179,Y181)</f>
-        <v>0</v>
+        <v>-1.2363166077989598E-2</v>
       </c>
       <c r="Z183" s="22"/>
       <c r="AA183" s="23"/>
@@ -26662,7 +26662,7 @@
       <c r="BG183" s="19"/>
       <c r="BH183" s="19">
         <f>BL172</f>
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BI183" s="19"/>
       <c r="BJ183" s="19"/>
@@ -26703,7 +26703,7 @@
       </c>
       <c r="BH184" s="19">
         <f>1/(1+EXP(-BH183))</f>
-        <v>0.50086551667172052</v>
+        <v>0.50086551722036865</v>
       </c>
       <c r="BI184" s="19"/>
       <c r="BJ184" s="19"/>
@@ -26765,7 +26765,7 @@
       <c r="X186" s="19"/>
       <c r="Y186" s="19">
         <f>PRODUCT(AD132,U133)</f>
-        <v>0</v>
+        <v>1.482129895195496E-4</v>
       </c>
       <c r="Z186" s="19"/>
       <c r="AA186" s="20"/>
@@ -26921,7 +26921,7 @@
       </c>
       <c r="Y190" s="85">
         <f>PRODUCT(Y186,Y188)</f>
-        <v>0</v>
+        <v>7.3808310402132907E-5</v>
       </c>
       <c r="Z190" s="19"/>
       <c r="AA190" s="20"/>
@@ -26935,7 +26935,7 @@
       <c r="BG190" s="19"/>
       <c r="BH190" s="19">
         <f>BK173</f>
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BI190" s="19"/>
       <c r="BJ190" s="19"/>
@@ -26958,10 +26958,10 @@
       <c r="W191" s="98">
         <v>12</v>
       </c>
-      <c r="X191" s="148" t="s">
+      <c r="X191" s="130" t="s">
         <v>214</v>
       </c>
-      <c r="Y191" s="148"/>
+      <c r="Y191" s="130"/>
       <c r="Z191" s="19"/>
       <c r="AA191" s="20"/>
       <c r="AB191" s="19"/>
@@ -26976,7 +26976,7 @@
       </c>
       <c r="BH191" s="19">
         <f>1/(1+EXP(-BH190))</f>
-        <v>0.50055369690660112</v>
+        <v>0.50055370910060515</v>
       </c>
       <c r="BI191" s="19"/>
       <c r="BJ191" s="19"/>
@@ -27038,7 +27038,7 @@
       </c>
       <c r="Y193" s="19">
         <f>Y169</f>
-        <v>0</v>
+        <v>-4.5273879607430331E-2</v>
       </c>
       <c r="Z193" s="19"/>
       <c r="AA193" s="19"/>
@@ -27061,21 +27061,21 @@
     <row r="194" spans="4:66">
       <c r="D194" s="44"/>
       <c r="H194" s="18"/>
-      <c r="I194" s="136" t="s">
+      <c r="I194" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="J194" s="136"/>
-      <c r="K194" s="136"/>
-      <c r="L194" s="136"/>
-      <c r="M194" s="136"/>
-      <c r="N194" s="136"/>
+      <c r="J194" s="134"/>
+      <c r="K194" s="134"/>
+      <c r="L194" s="134"/>
+      <c r="M194" s="134"/>
+      <c r="N194" s="134"/>
       <c r="O194" s="19"/>
       <c r="P194" s="20"/>
       <c r="W194" s="18"/>
       <c r="X194" s="19"/>
       <c r="Y194" s="19">
         <f>Y176</f>
-        <v>0</v>
+        <v>-2.4886469895474939E-4</v>
       </c>
       <c r="Z194" s="19"/>
       <c r="AA194" s="19"/>
@@ -27110,7 +27110,7 @@
       <c r="X195" s="19"/>
       <c r="Y195" s="19">
         <f>Y183</f>
-        <v>0</v>
+        <v>-1.2363166077989598E-2</v>
       </c>
       <c r="Z195" s="19"/>
       <c r="AA195" s="19"/>
@@ -27147,7 +27147,7 @@
       <c r="X196" s="22"/>
       <c r="Y196" s="22">
         <f>Y190</f>
-        <v>0</v>
+        <v>7.3808310402132907E-5</v>
       </c>
       <c r="Z196" s="22"/>
       <c r="AA196" s="22"/>
@@ -27183,10 +27183,10 @@
       <c r="W197" s="98">
         <v>13</v>
       </c>
-      <c r="X197" s="148" t="s">
+      <c r="X197" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="Y197" s="148"/>
+      <c r="Y197" s="130"/>
       <c r="Z197" s="19" t="s">
         <v>75</v>
       </c>
@@ -27195,7 +27195,7 @@
       <c r="BG197" s="19"/>
       <c r="BH197" s="19">
         <f>BL173</f>
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BI197" s="19"/>
       <c r="BJ197" s="19"/>
@@ -27228,7 +27228,7 @@
       </c>
       <c r="BH198" s="19">
         <f>1/(1+EXP(-BH197))</f>
-        <v>0.5007563418346509</v>
+        <v>0.50075634208726805</v>
       </c>
       <c r="BI198" s="19"/>
       <c r="BJ198" s="19"/>
@@ -27254,7 +27254,7 @@
       </c>
       <c r="Y199" s="19">
         <f t="array" ref="Y199:Y202">MMULT($AA$11:$AD$14,Y193:Y196)</f>
-        <v>0</v>
+        <v>2.4093630749668724E-4</v>
       </c>
       <c r="Z199" s="19"/>
       <c r="BF199" s="18"/>
@@ -27279,7 +27279,7 @@
       <c r="O200" s="19"/>
       <c r="P200" s="20"/>
       <c r="Y200">
-        <v>0</v>
+        <v>6.9770393961008587E-3</v>
       </c>
       <c r="AA200" t="s">
         <v>213</v>
@@ -27306,20 +27306,20 @@
       <c r="O201" s="19"/>
       <c r="P201" s="20"/>
       <c r="Y201">
-        <v>0</v>
+        <v>-5.725125360147381E-2</v>
       </c>
       <c r="AA201" s="19">
         <f t="array" ref="AA201:AD201">TRANSPOSE(Y199:Y202)</f>
-        <v>0</v>
+        <v>2.4093630749668724E-4</v>
       </c>
       <c r="AB201">
-        <v>0</v>
+        <v>6.9770393961008587E-3</v>
       </c>
       <c r="AC201">
-        <v>0</v>
+        <v>-5.725125360147381E-2</v>
       </c>
       <c r="AD201">
-        <v>0</v>
+        <v>9.7125026319102251E-3</v>
       </c>
       <c r="BF201" s="18"/>
       <c r="BG201" s="19"/>
@@ -27343,7 +27343,7 @@
       <c r="O202" s="19"/>
       <c r="P202" s="20"/>
       <c r="Y202">
-        <v>0</v>
+        <v>9.7125026319102251E-3</v>
       </c>
       <c r="BF202" s="18"/>
       <c r="BG202" s="65" t="s">
@@ -27371,21 +27371,21 @@
       <c r="W203" s="98">
         <v>14</v>
       </c>
-      <c r="X203" s="142" t="s">
+      <c r="X203" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="Y203" s="142"/>
+      <c r="Y203" s="132"/>
       <c r="Z203" s="19"/>
       <c r="AA203" s="19"/>
       <c r="BF203" s="18"/>
-      <c r="BG203" s="136" t="s">
+      <c r="BG203" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="BH203" s="136"/>
-      <c r="BI203" s="136"/>
-      <c r="BJ203" s="136"/>
-      <c r="BK203" s="136"/>
-      <c r="BL203" s="136"/>
+      <c r="BH203" s="134"/>
+      <c r="BI203" s="134"/>
+      <c r="BJ203" s="134"/>
+      <c r="BK203" s="134"/>
+      <c r="BL203" s="134"/>
       <c r="BM203" s="19"/>
       <c r="BN203" s="20"/>
     </row>
@@ -27432,7 +27432,7 @@
       <c r="X205" s="19"/>
       <c r="Y205" s="19">
         <f>AD201</f>
-        <v>0</v>
+        <v>9.7125026319102251E-3</v>
       </c>
       <c r="Z205" s="19"/>
       <c r="AA205" s="19"/>
@@ -27481,25 +27481,25 @@
     <row r="207" spans="4:66">
       <c r="D207" s="44"/>
       <c r="H207" s="18"/>
-      <c r="I207" s="137" t="s">
+      <c r="I207" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="J207" s="138"/>
-      <c r="K207" s="139"/>
-      <c r="L207" s="137" t="s">
+      <c r="J207" s="136"/>
+      <c r="K207" s="137"/>
+      <c r="L207" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="M207" s="138"/>
-      <c r="N207" s="139"/>
+      <c r="M207" s="136"/>
+      <c r="N207" s="137"/>
       <c r="O207" s="19"/>
       <c r="P207" s="20"/>
       <c r="W207" s="100">
         <v>15</v>
       </c>
-      <c r="X207" s="142" t="s">
+      <c r="X207" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="Y207" s="142"/>
+      <c r="Y207" s="132"/>
       <c r="Z207" s="19"/>
       <c r="AA207" s="19"/>
       <c r="BF207" s="18"/>
@@ -27515,18 +27515,18 @@
     <row r="208" spans="4:66">
       <c r="D208" s="44"/>
       <c r="H208" s="18"/>
-      <c r="I208" s="130">
+      <c r="I208" s="138">
         <f>PRODUCT(J182,J143)</f>
         <v>3.7450732660846415E-3</v>
       </c>
-      <c r="J208" s="131"/>
-      <c r="K208" s="132"/>
-      <c r="L208" s="133">
+      <c r="J208" s="139"/>
+      <c r="K208" s="140"/>
+      <c r="L208" s="141">
         <f>PRODUCT(J175,J170)</f>
         <v>2.1919456107348584E-3</v>
       </c>
-      <c r="M208" s="134"/>
-      <c r="N208" s="135"/>
+      <c r="M208" s="142"/>
+      <c r="N208" s="143"/>
       <c r="O208" s="19"/>
       <c r="P208" s="20"/>
       <c r="X208" s="19"/>
@@ -27563,16 +27563,16 @@
       <c r="P209" s="20"/>
       <c r="Y209">
         <f t="array" ref="Y209:AB212">MMULT(Y193:Y196,X127:AA127)</f>
-        <v>0</v>
+        <v>-3.5358893276322305E-4</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-4.5757848667288059E-4</v>
       </c>
       <c r="AA209">
-        <v>0</v>
+        <v>-5.123647737662496E-4</v>
       </c>
       <c r="AB209">
-        <v>0</v>
+        <v>-1.0894376177415804E-4</v>
       </c>
       <c r="BF209" s="18"/>
       <c r="BG209" s="19"/>
@@ -27596,16 +27596,16 @@
       <c r="O210" s="19"/>
       <c r="P210" s="20"/>
       <c r="Y210">
-        <v>0</v>
+        <v>-1.943632930706667E-6</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-2.5152501469153331E-6</v>
       </c>
       <c r="AA210">
-        <v>0</v>
+        <v>-2.8164033275696827E-6</v>
       </c>
       <c r="AB210">
-        <v>0</v>
+        <v>-5.9884986027294473E-7</v>
       </c>
       <c r="BF210" s="18"/>
       <c r="BG210" s="19"/>
@@ -27631,16 +27631,16 @@
       <c r="O211" s="68"/>
       <c r="P211" s="20"/>
       <c r="Y211">
-        <v>0</v>
+        <v>-9.6556308781043325E-5</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-1.2495325944020773E-4</v>
       </c>
       <c r="AA211">
-        <v>0</v>
+        <v>-1.3991402648745181E-4</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>-2.9749821125419953E-5</v>
       </c>
       <c r="BF211" s="18"/>
       <c r="BG211" s="19"/>
@@ -27666,16 +27666,16 @@
       <c r="O212" s="19"/>
       <c r="P212" s="20"/>
       <c r="Y212">
-        <v>0</v>
+        <v>5.7644279506065806E-7</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>7.4597307035616578E-7</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>8.3528910243979796E-7</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>1.7760693484026935E-7</v>
       </c>
       <c r="BF212" s="18"/>
       <c r="BG212" s="19"/>
@@ -27753,7 +27753,7 @@
       </c>
       <c r="Y215">
         <f>Y144</f>
-        <v>0</v>
+        <v>-9.8648093407288154E-2</v>
       </c>
       <c r="BF215" s="18"/>
       <c r="BG215" s="19"/>
@@ -27786,19 +27786,19 @@
       </c>
       <c r="Y216">
         <f>Y205</f>
-        <v>0</v>
+        <v>9.7125026319102251E-3</v>
       </c>
       <c r="BF216" s="18"/>
-      <c r="BG216" s="137" t="s">
+      <c r="BG216" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="BH216" s="138"/>
-      <c r="BI216" s="139"/>
-      <c r="BJ216" s="137" t="s">
+      <c r="BH216" s="136"/>
+      <c r="BI216" s="137"/>
+      <c r="BJ216" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="BK216" s="138"/>
-      <c r="BL216" s="139"/>
+      <c r="BK216" s="136"/>
+      <c r="BL216" s="137"/>
       <c r="BM216" s="19"/>
       <c r="BN216" s="20"/>
     </row>
@@ -27810,34 +27810,34 @@
         <v>215</v>
       </c>
       <c r="Y217" s="1">
-        <f t="shared" ref="Y217:AB217" si="44">Y209</f>
-        <v>0</v>
+        <f t="shared" ref="Y217:AB217" si="46">Y209</f>
+        <v>-3.5358893276322305E-4</v>
       </c>
       <c r="Z217" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>-4.5757848667288059E-4</v>
       </c>
       <c r="AA217" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>-5.123647737662496E-4</v>
       </c>
       <c r="AB217" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>-1.0894376177415804E-4</v>
       </c>
       <c r="BF217" s="18"/>
-      <c r="BG217" s="130">
+      <c r="BG217" s="138">
         <f>PRODUCT(BH191,BH152)</f>
-        <v>1.2072852206714473E-3</v>
-      </c>
-      <c r="BH217" s="131"/>
-      <c r="BI217" s="132"/>
-      <c r="BJ217" s="133">
+        <v>1.2074411661303652E-3</v>
+      </c>
+      <c r="BH217" s="139"/>
+      <c r="BI217" s="140"/>
+      <c r="BJ217" s="141">
         <f>PRODUCT(BH184,BH179)</f>
-        <v>1.6073396931478839E-3</v>
-      </c>
-      <c r="BK217" s="134"/>
-      <c r="BL217" s="135"/>
+        <v>1.6075472615595149E-3</v>
+      </c>
+      <c r="BK217" s="142"/>
+      <c r="BL217" s="143"/>
       <c r="BM217" s="19"/>
       <c r="BN217" s="20"/>
     </row>
@@ -27858,20 +27858,20 @@
       <c r="O218" s="15"/>
       <c r="P218" s="24"/>
       <c r="Y218" s="1">
-        <f t="shared" ref="Y218:AB218" si="45">Y210</f>
-        <v>0</v>
+        <f t="shared" ref="Y218:AB218" si="47">Y210</f>
+        <v>-1.943632930706667E-6</v>
       </c>
       <c r="Z218" s="1">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>-2.5152501469153331E-6</v>
       </c>
       <c r="AA218" s="1">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>-2.8164033275696827E-6</v>
       </c>
       <c r="AB218" s="1">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>-5.9884986027294473E-7</v>
       </c>
       <c r="BF218" s="18"/>
       <c r="BG218" s="19" t="s">
@@ -27879,7 +27879,7 @@
       </c>
       <c r="BH218" s="19">
         <f>SUM(BG217:BL217)</f>
-        <v>2.8146249138193309E-3</v>
+        <v>2.8149884276898801E-3</v>
       </c>
       <c r="BI218" s="33"/>
       <c r="BJ218" s="19"/>
@@ -27905,20 +27905,20 @@
       <c r="O219" s="22"/>
       <c r="P219" s="23"/>
       <c r="Y219" s="1">
-        <f t="shared" ref="Y219:AB219" si="46">Y211</f>
-        <v>0</v>
+        <f t="shared" ref="Y219:AB219" si="48">Y211</f>
+        <v>-9.6556308781043325E-5</v>
       </c>
       <c r="Z219" s="1">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>-1.2495325944020773E-4</v>
       </c>
       <c r="AA219" s="1">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>-1.3991402648745181E-4</v>
       </c>
       <c r="AB219" s="1">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>-2.9749821125419953E-5</v>
       </c>
       <c r="BF219" s="18"/>
       <c r="BG219" s="19"/>
@@ -27940,20 +27940,20 @@
         <v>0.50049982676709337</v>
       </c>
       <c r="Y220" s="1">
-        <f t="shared" ref="Y220:AB220" si="47">Y212</f>
-        <v>0</v>
+        <f t="shared" ref="Y220:AB220" si="49">Y212</f>
+        <v>5.7644279506065806E-7</v>
       </c>
       <c r="Z220" s="1">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>7.4597307035616578E-7</v>
       </c>
       <c r="AA220" s="1">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>8.3528910243979796E-7</v>
       </c>
       <c r="AB220" s="1">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>1.7760693484026935E-7</v>
       </c>
       <c r="BF220" s="18"/>
       <c r="BG220" s="68" t="s">
@@ -28049,7 +28049,7 @@
       </c>
       <c r="BK223" s="19">
         <f>TANH(BH218)</f>
-        <v>2.8146174812502967E-3</v>
+        <v>2.814980992240691E-3</v>
       </c>
       <c r="BL223" s="19"/>
       <c r="BM223" s="19"/>
@@ -28096,12 +28096,12 @@
         <v>0</v>
       </c>
       <c r="W225" s="18"/>
-      <c r="X225" s="137">
+      <c r="X225" s="135">
         <f>U227-U224*U225</f>
         <v>7.6309730478557478E-2</v>
       </c>
-      <c r="Y225" s="138"/>
-      <c r="Z225" s="139"/>
+      <c r="Y225" s="136"/>
+      <c r="Z225" s="137"/>
       <c r="AA225" s="19"/>
       <c r="AB225" s="18"/>
       <c r="AC225" s="19"/>
@@ -28117,7 +28117,7 @@
       </c>
       <c r="BH225" s="19">
         <f>PRODUCT(BH198,BK223)</f>
-        <v>1.4094375535747578E-3</v>
+        <v>1.4096195847196366E-3</v>
       </c>
       <c r="BI225" s="19"/>
       <c r="BJ225" s="19"/>
@@ -28188,12 +28188,12 @@
       <c r="W227" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="X227" s="137">
+      <c r="X227" s="135">
         <f>U227+U224*X225</f>
         <v>0.11446459571783621</v>
       </c>
-      <c r="Y227" s="138"/>
-      <c r="Z227" s="139"/>
+      <c r="Y227" s="136"/>
+      <c r="Z227" s="137"/>
       <c r="AA227" s="19"/>
       <c r="AB227" s="18"/>
       <c r="AC227" s="19"/>
@@ -28208,7 +28208,7 @@
       </c>
       <c r="BG227" s="15">
         <f>BH179</f>
-        <v>3.2091242851549182E-3</v>
+        <v>3.2095387010885662E-3</v>
       </c>
       <c r="BH227" s="15"/>
       <c r="BI227" s="15"/>
@@ -28262,7 +28262,7 @@
       </c>
       <c r="BG228" s="19">
         <f>BH191</f>
-        <v>0.50055369690660112</v>
+        <v>0.50055370910060515</v>
       </c>
       <c r="BH228" s="22"/>
       <c r="BI228" s="22"/>
@@ -28306,7 +28306,7 @@
       </c>
       <c r="BG229" s="19">
         <f>BH184</f>
-        <v>0.50086551667172052</v>
+        <v>0.50086551722036865</v>
       </c>
     </row>
     <row r="230" spans="4:66">
@@ -28346,7 +28346,7 @@
       </c>
       <c r="BG230" s="19">
         <f>BH198</f>
-        <v>0.5007563418346509</v>
+        <v>0.50075634208726805</v>
       </c>
     </row>
     <row r="231" spans="4:66">
@@ -28370,11 +28370,11 @@
       <c r="X231" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="Y231" s="136" t="s">
+      <c r="Y231" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="Z231" s="136"/>
-      <c r="AA231" s="136"/>
+      <c r="Z231" s="134"/>
+      <c r="AA231" s="134"/>
       <c r="AB231" s="18"/>
       <c r="AC231" s="19"/>
       <c r="AD231" s="19"/>
@@ -28386,7 +28386,7 @@
       </c>
       <c r="BG231" s="19">
         <f>BH218</f>
-        <v>2.8146249138193309E-3</v>
+        <v>2.8149884276898801E-3</v>
       </c>
     </row>
     <row r="232" spans="4:66">
@@ -28426,7 +28426,7 @@
       </c>
       <c r="BG232" s="22">
         <f>BH225</f>
-        <v>1.4094375535747578E-3</v>
+        <v>1.4096195847196366E-3</v>
       </c>
     </row>
     <row r="233" spans="4:66">
@@ -28449,11 +28449,11 @@
       <c r="X233" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="Y233" s="136" t="s">
+      <c r="Y233" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="Z233" s="136"/>
-      <c r="AA233" s="136"/>
+      <c r="Z233" s="134"/>
+      <c r="AA233" s="134"/>
       <c r="AB233" s="18"/>
       <c r="AC233" s="19"/>
       <c r="AD233" s="19"/>
@@ -28617,18 +28617,18 @@
       <c r="BF237" s="18"/>
       <c r="BG237" s="19">
         <f>BN33</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BH237" s="19"/>
       <c r="BI237" s="19"/>
       <c r="BJ237" s="19"/>
       <c r="BK237" s="66">
         <f>BG237</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BL237" s="66">
         <f>BG238</f>
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BM237" s="19"/>
       <c r="BN237" s="20"/>
@@ -28662,18 +28662,18 @@
       <c r="BF238" s="18"/>
       <c r="BG238" s="19">
         <f>BN34</f>
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BH238" s="19"/>
       <c r="BI238" s="19"/>
       <c r="BJ238" s="19"/>
       <c r="BK238" s="66">
         <f>BG239</f>
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BL238" s="66">
         <f>BG240</f>
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BM238" s="19"/>
       <c r="BN238" s="20"/>
@@ -28709,7 +28709,7 @@
       <c r="BF239" s="18"/>
       <c r="BG239" s="19">
         <f>BN35</f>
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BH239" s="19"/>
       <c r="BI239" s="19"/>
@@ -28753,7 +28753,7 @@
       <c r="BF240" s="18"/>
       <c r="BG240" s="19">
         <f>BN36</f>
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BH240" s="19"/>
       <c r="BI240" s="19"/>
@@ -28833,10 +28833,10 @@
       <c r="W243" s="89">
         <v>4</v>
       </c>
-      <c r="X243" s="146" t="s">
+      <c r="X243" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="Y243" s="146"/>
+      <c r="Y243" s="131"/>
       <c r="Z243" s="15"/>
       <c r="AA243" s="15"/>
       <c r="AB243" s="15"/>
@@ -28849,7 +28849,7 @@
       <c r="BG243" s="19"/>
       <c r="BH243" s="19">
         <f>BK237</f>
-        <v>3.2091353015889978E-3</v>
+        <v>3.2095497217910951E-3</v>
       </c>
       <c r="BI243" s="19"/>
       <c r="BJ243" s="19"/>
@@ -28889,7 +28889,7 @@
       </c>
       <c r="BH244" s="19">
         <f>TANH(BH243)</f>
-        <v>3.2091242851549182E-3</v>
+        <v>3.2095387010885662E-3</v>
       </c>
       <c r="BI244" s="19"/>
       <c r="BJ244" s="19"/>
@@ -28952,10 +28952,10 @@
       <c r="W246" s="80">
         <v>5</v>
       </c>
-      <c r="X246" s="142" t="s">
+      <c r="X246" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="Y246" s="142"/>
+      <c r="Y246" s="132"/>
       <c r="Z246" s="19"/>
       <c r="AA246" s="19"/>
       <c r="AB246" s="19"/>
@@ -29046,7 +29046,7 @@
       <c r="BG248" s="19"/>
       <c r="BH248" s="19">
         <f>BL237</f>
-        <v>3.4620701448886612E-3</v>
+        <v>3.4620723394880037E-3</v>
       </c>
       <c r="BI248" s="19"/>
       <c r="BJ248" s="19"/>
@@ -29068,10 +29068,10 @@
       <c r="W249" s="80">
         <v>6</v>
       </c>
-      <c r="X249" s="142" t="s">
+      <c r="X249" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="Y249" s="142"/>
+      <c r="Y249" s="132"/>
       <c r="Z249" s="19"/>
       <c r="AA249" s="19"/>
       <c r="AB249" s="19"/>
@@ -29086,7 +29086,7 @@
       </c>
       <c r="BH249" s="19">
         <f>1/(1+EXP(-BH248))</f>
-        <v>0.50086551667172052</v>
+        <v>0.50086551722036865</v>
       </c>
       <c r="BI249" s="19"/>
       <c r="BJ249" s="19"/>
@@ -29181,10 +29181,10 @@
       <c r="W252" s="80">
         <v>7</v>
       </c>
-      <c r="X252" s="142" t="s">
+      <c r="X252" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="Y252" s="142"/>
+      <c r="Y252" s="132"/>
       <c r="Z252" s="19"/>
       <c r="AA252" s="19"/>
       <c r="AB252" s="19"/>
@@ -29218,11 +29218,11 @@
       <c r="P253" s="20"/>
       <c r="W253" s="18"/>
       <c r="X253" s="19"/>
-      <c r="Y253" s="147" t="s">
+      <c r="Y253" s="146" t="s">
         <v>179</v>
       </c>
-      <c r="Z253" s="147"/>
-      <c r="AA253" s="147"/>
+      <c r="Z253" s="146"/>
+      <c r="AA253" s="146"/>
       <c r="AB253" s="19"/>
       <c r="AC253" s="18"/>
       <c r="AD253" s="19"/>
@@ -29309,7 +29309,7 @@
       <c r="BG255" s="19"/>
       <c r="BH255" s="19">
         <f>BK238</f>
-        <v>2.2147885317519637E-3</v>
+        <v>2.2148373078280173E-3</v>
       </c>
       <c r="BI255" s="19"/>
       <c r="BJ255" s="19"/>
@@ -29345,7 +29345,7 @@
       </c>
       <c r="BH256" s="19">
         <f>1/(1+EXP(-BH255))</f>
-        <v>0.50055369690660112</v>
+        <v>0.50055370910060515</v>
       </c>
       <c r="BI256" s="19"/>
       <c r="BJ256" s="19"/>
@@ -29367,10 +29367,10 @@
       <c r="W257" s="95">
         <v>8</v>
       </c>
-      <c r="X257" s="146" t="s">
+      <c r="X257" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="Y257" s="146"/>
+      <c r="Y257" s="131"/>
       <c r="Z257" s="15"/>
       <c r="AA257" s="15"/>
       <c r="AB257" s="14"/>
@@ -29428,14 +29428,14 @@
     </row>
     <row r="259" spans="8:66">
       <c r="H259" s="18"/>
-      <c r="I259" s="136" t="s">
+      <c r="I259" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="J259" s="136"/>
-      <c r="K259" s="136"/>
-      <c r="L259" s="136"/>
-      <c r="M259" s="136"/>
-      <c r="N259" s="136"/>
+      <c r="J259" s="134"/>
+      <c r="K259" s="134"/>
+      <c r="L259" s="134"/>
+      <c r="M259" s="134"/>
+      <c r="N259" s="134"/>
       <c r="O259" s="19"/>
       <c r="P259" s="20"/>
       <c r="W259" s="18"/>
@@ -29564,7 +29564,7 @@
       <c r="BG262" s="19"/>
       <c r="BH262" s="19">
         <f>BL238</f>
-        <v>3.0253696461673826E-3</v>
+        <v>3.0253706566384601E-3</v>
       </c>
       <c r="BI262" s="19"/>
       <c r="BJ262" s="19"/>
@@ -29603,7 +29603,7 @@
       </c>
       <c r="BH263" s="19">
         <f>1/(1+EXP(-BH262))</f>
-        <v>0.5007563418346509</v>
+        <v>0.50075634208726805</v>
       </c>
       <c r="BI263" s="19"/>
       <c r="BJ263" s="19"/>
@@ -29694,10 +29694,10 @@
       <c r="W266" s="93">
         <v>9</v>
       </c>
-      <c r="X266" s="142" t="s">
+      <c r="X266" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="Y266" s="142"/>
+      <c r="Y266" s="132"/>
       <c r="Z266" s="15"/>
       <c r="AA266" s="24"/>
       <c r="AB266" s="19"/>
@@ -29778,14 +29778,14 @@
       <c r="AF268" s="19"/>
       <c r="AG268" s="20"/>
       <c r="BF268" s="18"/>
-      <c r="BG268" s="136" t="s">
+      <c r="BG268" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="BH268" s="136"/>
-      <c r="BI268" s="136"/>
-      <c r="BJ268" s="136"/>
-      <c r="BK268" s="136"/>
-      <c r="BL268" s="136"/>
+      <c r="BH268" s="134"/>
+      <c r="BI268" s="134"/>
+      <c r="BJ268" s="134"/>
+      <c r="BK268" s="134"/>
+      <c r="BL268" s="134"/>
       <c r="BM268" s="19"/>
       <c r="BN268" s="20"/>
     </row>
@@ -29895,16 +29895,16 @@
     </row>
     <row r="272" spans="8:66">
       <c r="H272" s="18"/>
-      <c r="I272" s="137" t="s">
+      <c r="I272" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="J272" s="138"/>
-      <c r="K272" s="139"/>
-      <c r="L272" s="137" t="s">
+      <c r="J272" s="136"/>
+      <c r="K272" s="137"/>
+      <c r="L272" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="M272" s="138"/>
-      <c r="N272" s="139"/>
+      <c r="M272" s="136"/>
+      <c r="N272" s="137"/>
       <c r="O272" s="19"/>
       <c r="P272" s="20"/>
       <c r="W272" s="18"/>
@@ -29933,18 +29933,18 @@
     </row>
     <row r="273" spans="8:66">
       <c r="H273" s="18"/>
-      <c r="I273" s="130">
+      <c r="I273" s="138">
         <f>PRODUCT(J247,J209)</f>
         <v>2.9685094384097497E-3</v>
       </c>
-      <c r="J273" s="131"/>
-      <c r="K273" s="132"/>
-      <c r="L273" s="133">
+      <c r="J273" s="139"/>
+      <c r="K273" s="140"/>
+      <c r="L273" s="141">
         <f>PRODUCT(J240,J235)</f>
         <v>0</v>
       </c>
-      <c r="M273" s="134"/>
-      <c r="N273" s="135"/>
+      <c r="M273" s="142"/>
+      <c r="N273" s="143"/>
       <c r="O273" s="19"/>
       <c r="P273" s="20"/>
       <c r="W273" s="80">
@@ -30259,16 +30259,16 @@
       <c r="AF281" s="19"/>
       <c r="AG281" s="20"/>
       <c r="BF281" s="18"/>
-      <c r="BG281" s="137" t="s">
+      <c r="BG281" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="BH281" s="138"/>
-      <c r="BI281" s="139"/>
-      <c r="BJ281" s="137" t="s">
+      <c r="BH281" s="136"/>
+      <c r="BI281" s="137"/>
+      <c r="BJ281" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="BK281" s="138"/>
-      <c r="BL281" s="139"/>
+      <c r="BK281" s="136"/>
+      <c r="BL281" s="137"/>
       <c r="BM281" s="19"/>
       <c r="BN281" s="20"/>
     </row>
@@ -30290,18 +30290,18 @@
       <c r="AF282" s="19"/>
       <c r="AG282" s="20"/>
       <c r="BF282" s="18"/>
-      <c r="BG282" s="130">
+      <c r="BG282" s="138">
         <f>PRODUCT(BH256,BH218)</f>
-        <v>1.4088709060176897E-3</v>
-      </c>
-      <c r="BH282" s="131"/>
-      <c r="BI282" s="132"/>
-      <c r="BJ282" s="133">
+        <v>1.4090528985554501E-3</v>
+      </c>
+      <c r="BH282" s="139"/>
+      <c r="BI282" s="140"/>
+      <c r="BJ282" s="141">
         <f>PRODUCT(BH249,BH244)</f>
-        <v>1.6073396931478839E-3</v>
-      </c>
-      <c r="BK282" s="134"/>
-      <c r="BL282" s="135"/>
+        <v>1.6075472615595149E-3</v>
+      </c>
+      <c r="BK282" s="142"/>
+      <c r="BL282" s="143"/>
       <c r="BM282" s="19"/>
       <c r="BN282" s="20"/>
     </row>
@@ -30341,7 +30341,7 @@
       </c>
       <c r="BH283" s="19">
         <f>SUM(BG282:BL282)</f>
-        <v>3.0162105991655736E-3</v>
+        <v>3.016600160114965E-3</v>
       </c>
       <c r="BI283" s="33"/>
       <c r="BJ283" s="19"/>
@@ -30469,10 +30469,10 @@
       <c r="W287" s="98">
         <v>12</v>
       </c>
-      <c r="X287" s="148" t="s">
+      <c r="X287" s="130" t="s">
         <v>214</v>
       </c>
-      <c r="Y287" s="148"/>
+      <c r="Y287" s="130"/>
       <c r="Z287" s="19"/>
       <c r="AA287" s="20"/>
       <c r="AB287" s="19"/>
@@ -30521,7 +30521,7 @@
       </c>
       <c r="BK288" s="19">
         <f>TANH(BH283)</f>
-        <v>3.0162014525136954E-3</v>
+        <v>3.0165910099186097E-3</v>
       </c>
       <c r="BL288" s="19"/>
       <c r="BM288" s="19"/>
@@ -30575,7 +30575,7 @@
       </c>
       <c r="BH290" s="19">
         <f>PRODUCT(BH263,BK288)</f>
-        <v>1.5103820055971187E-3</v>
+        <v>1.5105770797001806E-3</v>
       </c>
       <c r="BI290" s="19"/>
       <c r="BJ290" s="19"/>
@@ -30622,7 +30622,7 @@
       </c>
       <c r="BG292" s="15">
         <f>BH244</f>
-        <v>3.2091242851549182E-3</v>
+        <v>3.2095387010885662E-3</v>
       </c>
       <c r="BH292" s="15"/>
       <c r="BI292" s="15"/>
@@ -30636,10 +30636,10 @@
       <c r="W293" s="98">
         <v>13</v>
       </c>
-      <c r="X293" s="148" t="s">
+      <c r="X293" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="Y293" s="148"/>
+      <c r="Y293" s="130"/>
       <c r="Z293" s="19" t="s">
         <v>75</v>
       </c>
@@ -30649,7 +30649,7 @@
       </c>
       <c r="BG293" s="19">
         <f>BH256</f>
-        <v>0.50055369690660112</v>
+        <v>0.50055370910060515</v>
       </c>
       <c r="BH293" s="22"/>
       <c r="BI293" s="22"/>
@@ -30672,7 +30672,7 @@
       </c>
       <c r="BG294" s="19">
         <f>BH249</f>
-        <v>0.50086551667172052</v>
+        <v>0.50086551722036865</v>
       </c>
     </row>
     <row r="295" spans="23:66">
@@ -30690,7 +30690,7 @@
       </c>
       <c r="BG295" s="19">
         <f>BH263</f>
-        <v>0.5007563418346509</v>
+        <v>0.50075634208726805</v>
       </c>
     </row>
     <row r="296" spans="23:66">
@@ -30705,7 +30705,7 @@
       </c>
       <c r="BG296" s="19">
         <f>BH283</f>
-        <v>3.0162105991655736E-3</v>
+        <v>3.016600160114965E-3</v>
       </c>
     </row>
     <row r="297" spans="23:66">
@@ -30730,7 +30730,7 @@
       </c>
       <c r="BG297" s="22">
         <f>BH290</f>
-        <v>1.5103820055971187E-3</v>
+        <v>1.5105770797001806E-3</v>
       </c>
     </row>
     <row r="298" spans="23:66">
@@ -30742,10 +30742,10 @@
       <c r="W299" s="98">
         <v>14</v>
       </c>
-      <c r="X299" s="142" t="s">
+      <c r="X299" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="Y299" s="142"/>
+      <c r="Y299" s="132"/>
       <c r="Z299" s="19"/>
       <c r="AA299" s="19"/>
     </row>
@@ -30785,10 +30785,10 @@
       <c r="W303" s="100">
         <v>15</v>
       </c>
-      <c r="X303" s="142" t="s">
+      <c r="X303" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="Y303" s="142"/>
+      <c r="Y303" s="132"/>
       <c r="Z303" s="19"/>
       <c r="AA303" s="19"/>
     </row>
@@ -30885,73 +30885,73 @@
         <v>215</v>
       </c>
       <c r="Y313" s="1">
-        <f t="shared" ref="Y313:AB313" si="48">Y305</f>
+        <f t="shared" ref="Y313:AB313" si="50">Y305</f>
         <v>-1.4506626315549604E-3</v>
       </c>
       <c r="Z313" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-2.5191215439868604E-3</v>
       </c>
       <c r="AA313" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-1.9339920323793742E-3</v>
       </c>
       <c r="AB313" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-1.3638716262451746E-3</v>
       </c>
     </row>
     <row r="314" spans="21:33">
       <c r="Y314" s="1">
-        <f t="shared" ref="Y314:AB314" si="49">Y306</f>
+        <f t="shared" ref="Y314:AB314" si="51">Y306</f>
         <v>-3.321959317563145E-6</v>
       </c>
       <c r="Z314" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-5.7686874281383578E-6</v>
       </c>
       <c r="AA314" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-4.4287642848902734E-6</v>
       </c>
       <c r="AB314" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-3.1232113919614014E-6</v>
       </c>
     </row>
     <row r="315" spans="21:33">
       <c r="Y315" s="1">
-        <f t="shared" ref="Y315:AB316" si="50">Y307</f>
+        <f t="shared" ref="Y315:AB316" si="52">Y307</f>
         <v>-3.8064435555389565E-4</v>
       </c>
       <c r="Z315" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-6.610009631563906E-4</v>
       </c>
       <c r="AA315" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-5.0746681881667065E-4</v>
       </c>
       <c r="AB315" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-3.5787096526630936E-4</v>
       </c>
     </row>
     <row r="316" spans="21:33">
       <c r="Y316" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>6.7790308018514441E-7</v>
       </c>
       <c r="Z316" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.1772001407377191E-6</v>
       </c>
       <c r="AA316" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.0376571870344888E-7</v>
       </c>
       <c r="AB316" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>6.3734513890226804E-7</v>
       </c>
     </row>
@@ -31010,15 +31010,15 @@
     </row>
     <row r="321" spans="21:33">
       <c r="U321" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W321" s="18"/>
-      <c r="X321" s="137">
+      <c r="X321" s="135">
         <f>U323-U320*U321</f>
-        <v>-0.38304649181985684</v>
-      </c>
-      <c r="Y321" s="138"/>
-      <c r="Z321" s="139"/>
+        <v>0.11695350818014316</v>
+      </c>
+      <c r="Y321" s="136"/>
+      <c r="Z321" s="137"/>
       <c r="AA321" s="19"/>
       <c r="AB321" s="18"/>
       <c r="AC321" s="19"/>
@@ -31057,12 +31057,12 @@
       <c r="W323" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="X323" s="137">
+      <c r="X323" s="135">
         <f>U323+U320*X321</f>
-        <v>-7.4569737729785257E-2</v>
-      </c>
-      <c r="Y323" s="138"/>
-      <c r="Z323" s="139"/>
+        <v>0.17543026227021474</v>
+      </c>
+      <c r="Y323" s="136"/>
+      <c r="Z323" s="137"/>
       <c r="AA323" s="19"/>
       <c r="AB323" s="18"/>
       <c r="AC323" s="19"/>
@@ -31088,7 +31088,7 @@
       </c>
       <c r="AD324" s="85">
         <f>PRODUCT(X323,AD322)</f>
-        <v>-2.2136032005837949E-4</v>
+        <v>5.207648596643659E-4</v>
       </c>
       <c r="AE324" s="33"/>
       <c r="AF324" s="33"/>
@@ -31133,11 +31133,11 @@
       <c r="X327" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="Y327" s="136" t="s">
+      <c r="Y327" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="Z327" s="136"/>
-      <c r="AA327" s="136"/>
+      <c r="Z327" s="134"/>
+      <c r="AA327" s="134"/>
       <c r="AB327" s="18"/>
       <c r="AC327" s="19"/>
       <c r="AD327" s="19"/>
@@ -31153,7 +31153,7 @@
       <c r="X328" s="73"/>
       <c r="Y328" s="19">
         <f>MMULT(X323,U325)</f>
-        <v>-3.7284868864892629E-2</v>
+        <v>8.7715131135107371E-2</v>
       </c>
       <c r="Z328" s="19"/>
       <c r="AA328" s="19"/>
@@ -31172,11 +31172,11 @@
       <c r="X329" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="Y329" s="136" t="s">
+      <c r="Y329" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="Z329" s="136"/>
-      <c r="AA329" s="136"/>
+      <c r="Z329" s="134"/>
+      <c r="AA329" s="134"/>
       <c r="AB329" s="18"/>
       <c r="AC329" s="19"/>
       <c r="AD329" s="19"/>
@@ -31264,7 +31264,7 @@
       <c r="X334" s="19"/>
       <c r="Y334" s="19">
         <f>Y328*Y332</f>
-        <v>-3.5253441964255131E-2</v>
+        <v>8.2936064387508238E-2</v>
       </c>
       <c r="Z334" s="19"/>
       <c r="AA334" s="19"/>
@@ -31299,7 +31299,7 @@
       </c>
       <c r="Y336" s="19">
         <f>U324+Y334</f>
-        <v>-1.2153993721135268</v>
+        <v>-1.0972098657617633</v>
       </c>
       <c r="Z336" s="19"/>
       <c r="AA336" s="19"/>
@@ -31327,10 +31327,10 @@
       <c r="W339" s="89">
         <v>4</v>
       </c>
-      <c r="X339" s="146" t="s">
+      <c r="X339" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="Y339" s="146"/>
+      <c r="Y339" s="131"/>
       <c r="Z339" s="15"/>
       <c r="AA339" s="15"/>
       <c r="AB339" s="15"/>
@@ -31377,10 +31377,10 @@
       <c r="W342" s="80">
         <v>5</v>
       </c>
-      <c r="X342" s="142" t="s">
+      <c r="X342" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="Y342" s="142"/>
+      <c r="Y342" s="132"/>
       <c r="Z342" s="19"/>
       <c r="AA342" s="19"/>
       <c r="AB342" s="19"/>
@@ -31412,7 +31412,7 @@
       </c>
       <c r="Y344" s="85">
         <f>PRODUCT(Y336,U329)</f>
-        <v>-0.60769968605676339</v>
+        <v>-0.54860493288088163</v>
       </c>
       <c r="Z344" s="33"/>
       <c r="AA344" s="33"/>
@@ -31427,10 +31427,10 @@
       <c r="W345" s="80">
         <v>6</v>
       </c>
-      <c r="X345" s="142" t="s">
+      <c r="X345" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="Y345" s="142"/>
+      <c r="Y345" s="132"/>
       <c r="Z345" s="19"/>
       <c r="AA345" s="19"/>
       <c r="AB345" s="19"/>
@@ -31462,7 +31462,7 @@
       </c>
       <c r="Y347" s="85">
         <f>PRODUCT(Y336,U330)</f>
-        <v>-0.60830717519565425</v>
+        <v>-0.54915334774090829</v>
       </c>
       <c r="Z347" s="33"/>
       <c r="AA347" s="33"/>
@@ -31477,10 +31477,10 @@
       <c r="W348" s="80">
         <v>7</v>
       </c>
-      <c r="X348" s="142" t="s">
+      <c r="X348" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="Y348" s="142"/>
+      <c r="Y348" s="132"/>
       <c r="Z348" s="19"/>
       <c r="AA348" s="19"/>
       <c r="AB348" s="19"/>
@@ -31493,11 +31493,11 @@
     <row r="349" spans="23:33">
       <c r="W349" s="18"/>
       <c r="X349" s="19"/>
-      <c r="Y349" s="147" t="s">
+      <c r="Y349" s="146" t="s">
         <v>179</v>
       </c>
-      <c r="Z349" s="147"/>
-      <c r="AA349" s="147"/>
+      <c r="Z349" s="146"/>
+      <c r="AA349" s="146"/>
       <c r="AB349" s="19"/>
       <c r="AC349" s="18"/>
       <c r="AD349" s="19"/>
@@ -31512,7 +31512,7 @@
       </c>
       <c r="Y350" s="85">
         <f>PRODUCT(Y336,U331)</f>
-        <v>-0.60769968605676339</v>
+        <v>-0.54860493288088163</v>
       </c>
       <c r="Z350" s="33"/>
       <c r="AA350" s="33"/>
@@ -31553,10 +31553,10 @@
       <c r="W353" s="95">
         <v>8</v>
       </c>
-      <c r="X353" s="146" t="s">
+      <c r="X353" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="Y353" s="146"/>
+      <c r="Y353" s="131"/>
       <c r="Z353" s="15"/>
       <c r="AA353" s="15"/>
       <c r="AB353" s="14"/>
@@ -31687,7 +31687,7 @@
       <c r="X361" s="19"/>
       <c r="Y361" s="19">
         <f>PRODUCT(Y344,Y359)</f>
-        <v>-0.60769968605676339</v>
+        <v>-0.54860493288088163</v>
       </c>
       <c r="Z361" s="19"/>
       <c r="AA361" s="19"/>
@@ -31702,10 +31702,10 @@
       <c r="W362" s="93">
         <v>9</v>
       </c>
-      <c r="X362" s="142" t="s">
+      <c r="X362" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="Y362" s="142"/>
+      <c r="Y362" s="132"/>
       <c r="Z362" s="15"/>
       <c r="AA362" s="24"/>
       <c r="AB362" s="19"/>
@@ -31853,7 +31853,7 @@
       <c r="X371" s="19"/>
       <c r="Y371" s="19">
         <f>PRODUCT(Y347,U331)</f>
-        <v>-0.30415358759782712</v>
+        <v>-0.27457667387045415</v>
       </c>
       <c r="Z371" s="19"/>
       <c r="AA371" s="20"/>
@@ -31919,7 +31919,7 @@
       </c>
       <c r="Y375" s="91">
         <f>PRODUCT(Y371,Y373)</f>
-        <v>-0.15207679379891356</v>
+        <v>-0.13728833693522707</v>
       </c>
       <c r="Z375" s="22"/>
       <c r="AA375" s="23"/>
@@ -31969,7 +31969,7 @@
       <c r="X378" s="19"/>
       <c r="Y378" s="19">
         <f>PRODUCT(AD324,U325)</f>
-        <v>-1.1068016002918975E-4</v>
+        <v>2.6038242983218295E-4</v>
       </c>
       <c r="Z378" s="19"/>
       <c r="AA378" s="20"/>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="Y382" s="85">
         <f>PRODUCT(Y378,Y380)</f>
-        <v>-5.5340080014594873E-5</v>
+        <v>1.3019121491609148E-4</v>
       </c>
       <c r="Z382" s="19"/>
       <c r="AA382" s="20"/>
@@ -32050,10 +32050,10 @@
       <c r="W383" s="98">
         <v>12</v>
       </c>
-      <c r="X383" s="148" t="s">
+      <c r="X383" s="130" t="s">
         <v>214</v>
       </c>
-      <c r="Y383" s="148"/>
+      <c r="Y383" s="130"/>
       <c r="Z383" s="19"/>
       <c r="AA383" s="20"/>
       <c r="AB383" s="19"/>
@@ -32085,7 +32085,7 @@
       </c>
       <c r="Y385" s="19">
         <f>Y361</f>
-        <v>-0.60769968605676339</v>
+        <v>-0.54860493288088163</v>
       </c>
       <c r="Z385" s="19"/>
       <c r="AA385" s="19"/>
@@ -32117,7 +32117,7 @@
       <c r="X387" s="19"/>
       <c r="Y387" s="19">
         <f>Y375</f>
-        <v>-0.15207679379891356</v>
+        <v>-0.13728833693522707</v>
       </c>
       <c r="Z387" s="19"/>
       <c r="AA387" s="19"/>
@@ -32133,7 +32133,7 @@
       <c r="X388" s="22"/>
       <c r="Y388" s="22">
         <f>Y382</f>
-        <v>-5.5340080014594873E-5</v>
+        <v>1.3019121491609148E-4</v>
       </c>
       <c r="Z388" s="22"/>
       <c r="AA388" s="22"/>
@@ -32148,10 +32148,10 @@
       <c r="W389" s="98">
         <v>13</v>
       </c>
-      <c r="X389" s="148" t="s">
+      <c r="X389" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="Y389" s="148"/>
+      <c r="Y389" s="130"/>
       <c r="Z389" s="19" t="s">
         <v>75</v>
       </c>
@@ -32173,13 +32173,13 @@
       </c>
       <c r="Y391" s="19">
         <f t="array" ref="Y391:Y394">MMULT($AA$11:$AD$14,Y385:Y388)</f>
-        <v>-6.0900440175040737E-4</v>
+        <v>-4.9050908778416381E-4</v>
       </c>
       <c r="Z391" s="19"/>
     </row>
     <row r="392" spans="23:33">
       <c r="Y392">
-        <v>9.3074503934667305E-2</v>
+        <v>8.3967576827871176E-2</v>
       </c>
       <c r="AA392" t="s">
         <v>213</v>
@@ -32187,35 +32187,35 @@
     </row>
     <row r="393" spans="23:33">
       <c r="Y393">
-        <v>-0.75225046270007845</v>
+        <v>-0.67896185191017999</v>
       </c>
       <c r="AA393" s="19">
         <f t="array" ref="AA393:AD393">TRANSPOSE(Y391:Y394)</f>
-        <v>-6.0900440175040737E-4</v>
+        <v>-4.9050908778416381E-4</v>
       </c>
       <c r="AB393">
-        <v>9.3074503934667305E-2</v>
+        <v>8.3967576827871176E-2</v>
       </c>
       <c r="AC393">
-        <v>-0.75225046270007845</v>
+        <v>-0.67896185191017999</v>
       </c>
       <c r="AD393">
-        <v>0.14382545845582814</v>
+        <v>0.12979564283658124</v>
       </c>
     </row>
     <row r="394" spans="23:33">
       <c r="Y394">
-        <v>0.14382545845582814</v>
+        <v>0.12979564283658124</v>
       </c>
     </row>
     <row r="395" spans="23:33">
       <c r="W395" s="98">
         <v>14</v>
       </c>
-      <c r="X395" s="142" t="s">
+      <c r="X395" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="Y395" s="142"/>
+      <c r="Y395" s="132"/>
       <c r="Z395" s="19"/>
       <c r="AA395" s="19"/>
     </row>
@@ -32233,7 +32233,7 @@
       <c r="X397" s="19"/>
       <c r="Y397" s="19">
         <f>$AD$105</f>
-        <v>0</v>
+        <v>2.6338663037032622E-2</v>
       </c>
       <c r="Z397" s="19"/>
       <c r="AA397" s="19"/>
@@ -32255,10 +32255,10 @@
       <c r="W399" s="100">
         <v>15</v>
       </c>
-      <c r="X399" s="142" t="s">
+      <c r="X399" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="Y399" s="142"/>
+      <c r="Y399" s="132"/>
       <c r="Z399" s="19"/>
       <c r="AA399" s="19"/>
     </row>
@@ -32282,7 +32282,7 @@
         <v>0</v>
       </c>
       <c r="AB401">
-        <v>-1.8068364056724928E-3</v>
+        <v>-1.6311335809512046E-3</v>
       </c>
     </row>
     <row r="402" spans="23:28">
@@ -32310,7 +32310,7 @@
         <v>0</v>
       </c>
       <c r="AB403">
-        <v>-4.5216065401778015E-4</v>
+        <v>-4.081910373500333E-4</v>
       </c>
     </row>
     <row r="404" spans="23:28">
@@ -32324,7 +32324,7 @@
         <v>0</v>
       </c>
       <c r="AB404">
-        <v>-1.6453928405330613E-7</v>
+        <v>3.8708959738898604E-7</v>
       </c>
     </row>
     <row r="406" spans="23:28">
@@ -32338,7 +32338,7 @@
       </c>
       <c r="Y407">
         <f>$Y$48</f>
-        <v>0</v>
+        <v>-0.11676705515041043</v>
       </c>
     </row>
     <row r="408" spans="23:28">
@@ -32347,7 +32347,7 @@
       </c>
       <c r="Y408">
         <f>Y397</f>
-        <v>0</v>
+        <v>2.6338663037032622E-2</v>
       </c>
     </row>
     <row r="409" spans="23:28">
@@ -32355,78 +32355,164 @@
         <v>215</v>
       </c>
       <c r="Y409" s="1">
-        <f t="shared" ref="Y409:AB409" si="51">Y401</f>
+        <f t="shared" ref="Y409:AB409" si="53">Y401</f>
         <v>0</v>
       </c>
       <c r="Z409" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AA409" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AB409" s="1">
-        <f t="shared" si="51"/>
-        <v>-1.8068364056724928E-3</v>
+        <f t="shared" si="53"/>
+        <v>-1.6311335809512046E-3</v>
       </c>
     </row>
     <row r="410" spans="23:28">
       <c r="Y410" s="1">
-        <f t="shared" ref="Y410:AB410" si="52">Y402</f>
+        <f t="shared" ref="Y410:AB410" si="54">Y402</f>
         <v>0</v>
       </c>
       <c r="Z410" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA410" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB410" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="23:28">
       <c r="Y411" s="1">
-        <f t="shared" ref="Y411:AB411" si="53">Y403</f>
+        <f t="shared" ref="Y411:AB411" si="55">Y403</f>
         <v>0</v>
       </c>
       <c r="Z411" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AA411" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AB411" s="1">
-        <f t="shared" si="53"/>
-        <v>-4.5216065401778015E-4</v>
+        <f t="shared" si="55"/>
+        <v>-4.081910373500333E-4</v>
       </c>
     </row>
     <row r="412" spans="23:28">
       <c r="Y412" s="1">
-        <f t="shared" ref="Y412:AB412" si="54">Y404</f>
+        <f t="shared" ref="Y412:AB412" si="56">Y404</f>
         <v>0</v>
       </c>
       <c r="Z412" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AA412" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB412" s="1">
-        <f t="shared" si="54"/>
-        <v>-1.6453928405330613E-7</v>
+        <f t="shared" si="56"/>
+        <v>3.8708959738898604E-7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="BG282:BI282"/>
+    <mergeCell ref="BJ282:BL282"/>
+    <mergeCell ref="BG217:BI217"/>
+    <mergeCell ref="BJ217:BL217"/>
+    <mergeCell ref="BG268:BL268"/>
+    <mergeCell ref="BG281:BI281"/>
+    <mergeCell ref="BJ281:BL281"/>
+    <mergeCell ref="BG151:BI151"/>
+    <mergeCell ref="BJ151:BL151"/>
+    <mergeCell ref="BG203:BL203"/>
+    <mergeCell ref="BG216:BI216"/>
+    <mergeCell ref="BJ216:BL216"/>
+    <mergeCell ref="BG86:BI86"/>
+    <mergeCell ref="BJ86:BL86"/>
+    <mergeCell ref="BG137:BL137"/>
+    <mergeCell ref="BG150:BI150"/>
+    <mergeCell ref="BJ150:BL150"/>
+    <mergeCell ref="BF15:BJ15"/>
+    <mergeCell ref="BG72:BL72"/>
+    <mergeCell ref="BG85:BI85"/>
+    <mergeCell ref="BJ85:BL85"/>
+    <mergeCell ref="X399:Y399"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="X321:Z321"/>
+    <mergeCell ref="X323:Z323"/>
+    <mergeCell ref="AD323:AE323"/>
+    <mergeCell ref="Y327:AA327"/>
+    <mergeCell ref="Y329:AA329"/>
+    <mergeCell ref="X339:Y339"/>
+    <mergeCell ref="X342:Y342"/>
+    <mergeCell ref="X345:Y345"/>
+    <mergeCell ref="X348:Y348"/>
+    <mergeCell ref="Y349:AA349"/>
+    <mergeCell ref="X353:Y353"/>
+    <mergeCell ref="X362:Y362"/>
+    <mergeCell ref="X383:Y383"/>
+    <mergeCell ref="X389:Y389"/>
+    <mergeCell ref="X395:Y395"/>
+    <mergeCell ref="X303:Y303"/>
+    <mergeCell ref="X207:Y207"/>
+    <mergeCell ref="X225:Z225"/>
+    <mergeCell ref="X227:Z227"/>
+    <mergeCell ref="AD227:AE227"/>
+    <mergeCell ref="Y231:AA231"/>
+    <mergeCell ref="AD131:AE131"/>
+    <mergeCell ref="Y135:AA135"/>
+    <mergeCell ref="Y137:AA137"/>
+    <mergeCell ref="X147:Y147"/>
+    <mergeCell ref="X150:Y150"/>
+    <mergeCell ref="X153:Y153"/>
+    <mergeCell ref="X156:Y156"/>
+    <mergeCell ref="Y157:AA157"/>
+    <mergeCell ref="X161:Y161"/>
+    <mergeCell ref="L208:N208"/>
+    <mergeCell ref="I128:N128"/>
+    <mergeCell ref="I141:K141"/>
+    <mergeCell ref="L141:N141"/>
+    <mergeCell ref="I142:K142"/>
+    <mergeCell ref="L142:N142"/>
+    <mergeCell ref="X293:Y293"/>
+    <mergeCell ref="X299:Y299"/>
+    <mergeCell ref="X129:Z129"/>
+    <mergeCell ref="X131:Z131"/>
+    <mergeCell ref="X170:Y170"/>
+    <mergeCell ref="X191:Y191"/>
+    <mergeCell ref="X197:Y197"/>
+    <mergeCell ref="X203:Y203"/>
+    <mergeCell ref="Y233:AA233"/>
+    <mergeCell ref="X243:Y243"/>
+    <mergeCell ref="X246:Y246"/>
+    <mergeCell ref="X249:Y249"/>
+    <mergeCell ref="X252:Y252"/>
+    <mergeCell ref="Y253:AA253"/>
+    <mergeCell ref="X257:Y257"/>
+    <mergeCell ref="X266:Y266"/>
+    <mergeCell ref="X287:Y287"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:N76"/>
     <mergeCell ref="X101:Y101"/>
     <mergeCell ref="X51:Y51"/>
     <mergeCell ref="X54:Y54"/>
@@ -32451,92 +32537,6 @@
     <mergeCell ref="X107:Y107"/>
     <mergeCell ref="X111:Y111"/>
     <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="X95:Y95"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="L208:N208"/>
-    <mergeCell ref="I128:N128"/>
-    <mergeCell ref="I141:K141"/>
-    <mergeCell ref="L141:N141"/>
-    <mergeCell ref="I142:K142"/>
-    <mergeCell ref="L142:N142"/>
-    <mergeCell ref="X293:Y293"/>
-    <mergeCell ref="X299:Y299"/>
-    <mergeCell ref="X129:Z129"/>
-    <mergeCell ref="X131:Z131"/>
-    <mergeCell ref="X170:Y170"/>
-    <mergeCell ref="X191:Y191"/>
-    <mergeCell ref="X197:Y197"/>
-    <mergeCell ref="X203:Y203"/>
-    <mergeCell ref="Y233:AA233"/>
-    <mergeCell ref="X243:Y243"/>
-    <mergeCell ref="X246:Y246"/>
-    <mergeCell ref="X249:Y249"/>
-    <mergeCell ref="X252:Y252"/>
-    <mergeCell ref="Y253:AA253"/>
-    <mergeCell ref="X257:Y257"/>
-    <mergeCell ref="X266:Y266"/>
-    <mergeCell ref="X287:Y287"/>
-    <mergeCell ref="AD131:AE131"/>
-    <mergeCell ref="Y135:AA135"/>
-    <mergeCell ref="Y137:AA137"/>
-    <mergeCell ref="X147:Y147"/>
-    <mergeCell ref="X150:Y150"/>
-    <mergeCell ref="X153:Y153"/>
-    <mergeCell ref="X156:Y156"/>
-    <mergeCell ref="Y157:AA157"/>
-    <mergeCell ref="X161:Y161"/>
-    <mergeCell ref="X399:Y399"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="X321:Z321"/>
-    <mergeCell ref="X323:Z323"/>
-    <mergeCell ref="AD323:AE323"/>
-    <mergeCell ref="Y327:AA327"/>
-    <mergeCell ref="Y329:AA329"/>
-    <mergeCell ref="X339:Y339"/>
-    <mergeCell ref="X342:Y342"/>
-    <mergeCell ref="X345:Y345"/>
-    <mergeCell ref="X348:Y348"/>
-    <mergeCell ref="Y349:AA349"/>
-    <mergeCell ref="X353:Y353"/>
-    <mergeCell ref="X362:Y362"/>
-    <mergeCell ref="X383:Y383"/>
-    <mergeCell ref="X389:Y389"/>
-    <mergeCell ref="X395:Y395"/>
-    <mergeCell ref="X303:Y303"/>
-    <mergeCell ref="X207:Y207"/>
-    <mergeCell ref="X225:Z225"/>
-    <mergeCell ref="X227:Z227"/>
-    <mergeCell ref="AD227:AE227"/>
-    <mergeCell ref="Y231:AA231"/>
-    <mergeCell ref="BG86:BI86"/>
-    <mergeCell ref="BJ86:BL86"/>
-    <mergeCell ref="BG137:BL137"/>
-    <mergeCell ref="BG150:BI150"/>
-    <mergeCell ref="BJ150:BL150"/>
-    <mergeCell ref="BF15:BJ15"/>
-    <mergeCell ref="BG72:BL72"/>
-    <mergeCell ref="BG85:BI85"/>
-    <mergeCell ref="BJ85:BL85"/>
-    <mergeCell ref="BG282:BI282"/>
-    <mergeCell ref="BJ282:BL282"/>
-    <mergeCell ref="BG217:BI217"/>
-    <mergeCell ref="BJ217:BL217"/>
-    <mergeCell ref="BG268:BL268"/>
-    <mergeCell ref="BG281:BI281"/>
-    <mergeCell ref="BJ281:BL281"/>
-    <mergeCell ref="BG151:BI151"/>
-    <mergeCell ref="BJ151:BL151"/>
-    <mergeCell ref="BG203:BL203"/>
-    <mergeCell ref="BG216:BI216"/>
-    <mergeCell ref="BJ216:BL216"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
